--- a/data/hotels_by_city/Dallas/Dallas_shard_692.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_692.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="780">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2250 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r574256756-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>578287</t>
+  </si>
+  <si>
+    <t>574256756</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Unexpectedly Amazing!</t>
+  </si>
+  <si>
+    <t>This hotel had one surprise after another for me. Airport Shuttle, room service during the week and a happy hour...AMAZING! The staff was very helpful and was able to accommodate my requests, definitely staying here the next time I come to the area</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r570611706-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>570611706</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Central location, reasonable in quality</t>
+  </si>
+  <si>
+    <t>This is an at best reasonable place to stay at. Great location. The room (2 queen bed + sofa bed) was decent. Beds were good to sleep in. Sofa bed was a nightmare to sleep in, springs kept poking me all night.Ok for a business trip. But not recommended for family, although I did see a bunch of families.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>This is an at best reasonable place to stay at. Great location. The room (2 queen bed + sofa bed) was decent. Beds were good to sleep in. Sofa bed was a nightmare to sleep in, springs kept poking me all night.Ok for a business trip. But not recommended for family, although I did see a bunch of families.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r564683213-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>564683213</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>This was a nice hotel. Very clean and neat. The beds were comfortable. It's close to the airport and they will shuttle you over while you  leave your car in their parking lot. They had a very nice breakfast buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice hotel. Very clean and neat. The beds were comfortable. It's close to the airport and they will shuttle you over while you  leave your car in their parking lot. They had a very nice breakfast buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r550028838-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>550028838</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Completely Updated and Clean Hotel!  Great Value!</t>
+  </si>
+  <si>
+    <t>Located in the heart of the Plano "Hospital District", very convenient for patients and their families.  Pricing was extremely reasonable  compared to other nearby locations.  Location is also near many good eateries / sportsbars including the Austin Ave Bar and Grill.....which is a really nice sports bar.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r549605781-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>549605781</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Quick stay, nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here before and after a flight from DFW. Service was good. Hotel is nice and clean. Only downside is that there was not anywhere on the nightstand to plug phone chargers in. There was an old docking station/alarm clock for the old iPhone. Who still has those? Would be nice if there were plug ins by each bed. Also, we had a suite, and the TV was such an odd placement that it wasn't easy to see from either bed or the couch.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r546178793-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>546178793</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Great 3 night stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while attending a conference at the new Irving convention center. Everything was very clean. The Internet speed was fast enough for Netflix. Exercise room was great with 2 treadmills and weights. Lots of restaurants nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r536926084-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>536926084</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and accommodating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay here frequently and I am never disappointed. The front desk staff are friendly and go above and beyond to ensure guests have a comfortable stay. The rooms are spacious and clean... each one has a kitchen, living room, and desk area. The only downside is the gym. It’s very small with hardly any equipment and the ellipticals and treadmills that are there look like they are from 1998. Food and drinks are good, especially the breakfast. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r536297511-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>536297511</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>AMAZING EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>I travel to Dallas twice a year for a convention with my family and we’ve always had bad experiences with hotels, until now! The staff is so nice and friendly, the prices are amazingly cheap, and they have great breakfast! The rooms are big and comfortable! Definitely recommend it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r535415502-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>535415502</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>We were here for a business closing, so things were very stressful.  The staff made it better by being so gracious and attentive to our needs.  I train customer service for a living and this crew is right on.  Amazing to see how the General Manager, Maritz, greets you in the morning when you leave and again, greets you at night when you return - this is dedication and passion.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r532354567-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>532354567</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Good location, clean</t>
+  </si>
+  <si>
+    <t>Clean, reasonably priced and breakfast included. Shuttle service leaves a lot to be desired - waited 25 minutes for pick up - and then driver said he didn't know he was picking us up despite calling Front desk 3 times. MoreShow less</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Clean, reasonably priced and breakfast included. Shuttle service leaves a lot to be desired - waited 25 minutes for pick up - and then driver said he didn't know he was picking us up despite calling Front desk 3 times. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r530349202-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>530349202</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dated </t>
+  </si>
+  <si>
+    <t>When I checked in, my room had a such a musty, stale, a moldy smell.  I went back to the front desk and asked for a new room. My new room also had the same smell.  I would relate it to a 10 year old, wet sock filled with cigarette butts.  Staff is very nice but hotel needs a remodel.MoreShow less</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>When I checked in, my room had a such a musty, stale, a moldy smell.  I went back to the front desk and asked for a new room. My new room also had the same smell.  I would relate it to a 10 year old, wet sock filled with cigarette butts.  Staff is very nice but hotel needs a remodel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r526537696-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>526537696</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Breakfast and crew were amazing!</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel and I do have to say we were pleasantly surprised with their free breakfast. We've stayed at many hotels but this hotel went a little above and beyond. The food was really good and they even had take out containers and bags for people on the go. They had fresh fruit and greek yogurt and their breakfast staff was so friendly. It seems like so many times the breakfast people are always mad or tired and don't really like their jobs but this was such a different experience at this hotel and really made a difference in our day after a long international flight across the ocean. We also appreciated their free airport shuttle since we were stranded without a rental car. We will definitely return if we are ever in the DFW area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel and I do have to say we were pleasantly surprised with their free breakfast. We've stayed at many hotels but this hotel went a little above and beyond. The food was really good and they even had take out containers and bags for people on the go. They had fresh fruit and greek yogurt and their breakfast staff was so friendly. It seems like so many times the breakfast people are always mad or tired and don't really like their jobs but this was such a different experience at this hotel and really made a difference in our day after a long international flight across the ocean. We also appreciated their free airport shuttle since we were stranded without a rental car. We will definitely return if we are ever in the DFW area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r517546056-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>517546056</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Great staff, good breakfast and shuttle service to airport and surrounding area</t>
+  </si>
+  <si>
+    <t>We choose this hotel as my husband wanted to go to Belk and this was closest hotel with airport shuttle. Note you must call airport shuttle at the hotel number. We live overseas and did not have roaming on our phone we used complimentary hotel number in the arrivals Hall to call hotel. Driver came timely took 20 minutes considering where it is located. Friendly hotel staff both driver and all front desk agent. Spacious clean room only thing noticed it had an interesting smell when we walked in. There isn't much around in terms of restaurants. Shuttle said would take you within 3 miles of hotel. Did notice they have in room dining service. Next Day took 7am shuttle. Shuttles leave every hour from 6am to airport. Complimentary breakfast was really good. Lots of variety. Hot - eggs, bacon, sausage, potatoes, oatmeak etc and cold - yoghurt, cereal The food was delicious.I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We choose this hotel as my husband wanted to go to Belk and this was closest hotel with airport shuttle. Note you must call airport shuttle at the hotel number. We live overseas and did not have roaming on our phone we used complimentary hotel number in the arrivals Hall to call hotel. Driver came timely took 20 minutes considering where it is located. Friendly hotel staff both driver and all front desk agent. Spacious clean room only thing noticed it had an interesting smell when we walked in. There isn't much around in terms of restaurants. Shuttle said would take you within 3 miles of hotel. Did notice they have in room dining service. Next Day took 7am shuttle. Shuttles leave every hour from 6am to airport. Complimentary breakfast was really good. Lots of variety. Hot - eggs, bacon, sausage, potatoes, oatmeak etc and cold - yoghurt, cereal The food was delicious.I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r503033179-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>503033179</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Group sales communication</t>
+  </si>
+  <si>
+    <t>Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew...Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew 2 days prior). I had just spoken to the director of sales the day before (on the 12th) and she did not mention anything about it and besides, she knew on the 13th but did not bother to contact me to make me aware of the situation. The GM did give us permission to ride the hotel shuttle- if it was available- to a sister property that was about a 15 minute commute and use their pool-- not very convenient. Never once did a staff member apologize about the situation.  Needless to say, we cancelled all of the rooms and moved to another hotel in the area that was very accommodating for our family reunion!MoreShow less</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew...Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew 2 days prior). I had just spoken to the director of sales the day before (on the 12th) and she did not mention anything about it and besides, she knew on the 13th but did not bother to contact me to make me aware of the situation. The GM did give us permission to ride the hotel shuttle- if it was available- to a sister property that was about a 15 minute commute and use their pool-- not very convenient. Never once did a staff member apologize about the situation.  Needless to say, we cancelled all of the rooms and moved to another hotel in the area that was very accommodating for our family reunion!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r501066088-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>501066088</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Smelly rooms, mold on ceiling, but nice staff</t>
+  </si>
+  <si>
+    <t>Hotel has some operating problems. Moved to 3 different rooms because of damp, musty smells. Traveling w 8 business colleagues all w similar complaint. AC in elevator area not working on each floor. Feels like 94-degrees during the 3 minute wait. Spacious room, clean with fridge, microwave and sitting room area. Staff very attentive and apologetic. Sprayed room w fragrance to air out. That's a temporary fix.Shuttle too busy to be helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Hotel has some operating problems. Moved to 3 different rooms because of damp, musty smells. Traveling w 8 business colleagues all w similar complaint. AC in elevator area not working on each floor. Feels like 94-degrees during the 3 minute wait. Spacious room, clean with fridge, microwave and sitting room area. Staff very attentive and apologetic. Sprayed room w fragrance to air out. That's a temporary fix.Shuttle too busy to be helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r491227653-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>491227653</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Horrible Experience - everything was WET</t>
+  </si>
+  <si>
+    <t>My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues...My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues in my room. He and his coworker were shocked. I said that this was totally unacceptable but know there clearly was no where else for me to go. No one offered to clean up the mess for me. I slept in the room on the couch that night, after discovering that I had no hot water in my room. I slept a few hours then got up to have another icy cold shower and a quick mediocre breakfast and left.  Thankfully the assistant GM comped my room.  I know that this isn't the standard for SpringHill Suites, as I had just stayed Mon-Fri at a SpringHill (booked under my company) in Fort Worth (University). Clearly this SHS has a housekeeping and management issue. The staff showed a lot of professionalism and ability to handle a room of tired, frustrated guests, but sadly that does not make up for a terrible experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>maritzamcgee, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues...My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues in my room. He and his coworker were shocked. I said that this was totally unacceptable but know there clearly was no where else for me to go. No one offered to clean up the mess for me. I slept in the room on the couch that night, after discovering that I had no hot water in my room. I slept a few hours then got up to have another icy cold shower and a quick mediocre breakfast and left.  Thankfully the assistant GM comped my room.  I know that this isn't the standard for SpringHill Suites, as I had just stayed Mon-Fri at a SpringHill (booked under my company) in Fort Worth (University). Clearly this SHS has a housekeeping and management issue. The staff showed a lot of professionalism and ability to handle a room of tired, frustrated guests, but sadly that does not make up for a terrible experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r487965257-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>487965257</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel, updated, clean and all the necessary comforts to accommodate battle-born travelers. Complementary breakfast that's actually tasty, health club, indoor pool.  This is one of very few Springhill suites that offers a full service bar.  If travel takes you nearby TPC, or area - it's a great option.  Great customer service...   </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r482365095-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>482365095</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Good value!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay at Marriott properties a lot of the time. The consistency is appreciated. Good, friendly staff here. Wished the breakfast entrees changed a little but they were consistent...Rooms are getting a little tired. This place is full, a lot. Clean room but I noticed an old water bottle under the bed. Remote was missing but a call to the front desk remedied that. Overall, a good value in a hot market. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r468098834-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>468098834</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Spring break 2017</t>
+  </si>
+  <si>
+    <t>We had a great stay. Everyone was very friendly and helpful. The complementary breakfast was fresh and tasted great. They had plenty of options. Our room was clean and the beds were so comfortable. Close to restaurants.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r462579694-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>462579694</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Worst stay ever!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>The pipe creaked and whistled any time ANY one in the hotel turned on the water, there were 10 empty sprite bottles behind my nightstand and the room had several carpet stains.  When I checked out, I told the manager and I was told that the points that I used to book the room would be refunded but they never were.  Not surprised.  This has to be the Marriott ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>The pipe creaked and whistled any time ANY one in the hotel turned on the water, there were 10 empty sprite bottles behind my nightstand and the room had several carpet stains.  When I checked out, I told the manager and I was told that the points that I used to book the room would be refunded but they never were.  Not surprised.  This has to be the Marriott ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r462352215-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>462352215</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Great experience at this property</t>
+  </si>
+  <si>
+    <t>I travel quite frequently for business. This location is convenient,  clean and safe. The staff are friendly.  The rooms are nice, well appointed. Great breakfast each morning with variety for every taste or dietary need. They even offer room service until 10pm. Will certainly stay here again!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r446089332-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>446089332</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay visiting Nation Scouting Museum</t>
+  </si>
+  <si>
+    <t>Great facility and great staff. Thank you all for your continuous hospitality. The room was fantastic and the breakfast was great. Loved the food. I will definitely suggest this hotel for the families passing through Beautiful Irving Texas.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r444914019-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>444914019</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>A great find</t>
+  </si>
+  <si>
+    <t>Booked this hotel for a weekend in Arlington to attend holiday in the park at six flags.  Excellent hotel, excellent location and EXCELLENT beds.  The beds at the hotels in arlington are TERRIBLE, so I decided to book the rooms in the next town and it was the best decision!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r439973272-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>439973272</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Vacation and game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. The staff was very friendly and knowledgeable. They offer a shuttle to and from airport and rides up to 3 miles. Room was better than expected. Small living room separate from the bed. Fridge and microwave. Very nice. The only problem I had was Tuesday night. They are replacing air conditioners. The guy doing the job was suppose to stop working at 9. But decided to work from midnight to 2 in the morning. It would get 5 stars except for that. I would stay here again. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r433648420-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>433648420</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Good Value for Price</t>
+  </si>
+  <si>
+    <t>Although we did not select this hotel since it was part of a tour package, we were pleasantly surprised and satisfied with the property!  Beds were comfortable and bathroom was clean;  We were there for two mornings and each day the breakfast buffet was taken down before the 10 am published end time.  Would have been nice to fill up on breakfast before our busy days but knowing what we know now, we suggest  guests to show up before 9:30.  
+The property location is quiet and located in a corporate business park with only one eating option within walking distance (a little hike if not in shape). We waited about 30 minutes for the shuttle pick up from the airport as it appears they go to all the terminals for pick up before heading to the hotel which is about  20 minutes away.
+The shuttle return trip to the airport leaves every hour on the hour starting at 6 am and you just show up ten minutes before the hour you want to leave.  We left  2 1/2 hours before out flight since it was our first time flying out of DFW and did not know how long it would to get through security; we arrived at the airport with enough time to spare and not be rushed.  Had we left an hour later, it would have definitely been very close. 
+The hotel shuttle (if available) will take you to...Although we did not select this hotel since it was part of a tour package, we were pleasantly surprised and satisfied with the property!  Beds were comfortable and bathroom was clean;  We were there for two mornings and each day the breakfast buffet was taken down before the 10 am published end time.  Would have been nice to fill up on breakfast before our busy days but knowing what we know now, we suggest  guests to show up before 9:30.  The property location is quiet and located in a corporate business park with only one eating option within walking distance (a little hike if not in shape). We waited about 30 minutes for the shuttle pick up from the airport as it appears they go to all the terminals for pick up before heading to the hotel which is about  20 minutes away.The shuttle return trip to the airport leaves every hour on the hour starting at 6 am and you just show up ten minutes before the hour you want to leave.  We left  2 1/2 hours before out flight since it was our first time flying out of DFW and did not know how long it would to get through security; we arrived at the airport with enough time to spare and not be rushed.  Had we left an hour later, it would have definitely been very close. The hotel shuttle (if available) will take you to restaurants within a 3 mile radius. This is not a problem for those with access to a vehicle, but for others it could make for a very long waiting time waiting for the shuttle (especially if you have cranky hungry children to feed).  Note: there are not too many vending machine options and are a bit quite expensive; the options at front desk are stark and also very pricey. Plan according considering you may be stuck without access to healthy, reasonably priced options.  We ordered dinner one night through GrubHub just so we didn't have to deal with the hotel shuttle, taxis or other car service. If taking a taxi to/from AT &amp; T Stadium from this location, make sure to call different taxis services as price  ranged from $35 to $45 depending on if paying cash or by credit card.We left the air conditioner on cooler than normal and it seemed to help with the musty smell we initially encountered.Overall, considering the amount of time we spent in the room, it was a good value for the money.  If one does not expect a 5 star experience, it will meet expectations.  If I was visiting the city of Dallas in the future, I would stay at a closer location but would recommend it and stay again if staying in the Las Colinas area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although we did not select this hotel since it was part of a tour package, we were pleasantly surprised and satisfied with the property!  Beds were comfortable and bathroom was clean;  We were there for two mornings and each day the breakfast buffet was taken down before the 10 am published end time.  Would have been nice to fill up on breakfast before our busy days but knowing what we know now, we suggest  guests to show up before 9:30.  
+The property location is quiet and located in a corporate business park with only one eating option within walking distance (a little hike if not in shape). We waited about 30 minutes for the shuttle pick up from the airport as it appears they go to all the terminals for pick up before heading to the hotel which is about  20 minutes away.
+The shuttle return trip to the airport leaves every hour on the hour starting at 6 am and you just show up ten minutes before the hour you want to leave.  We left  2 1/2 hours before out flight since it was our first time flying out of DFW and did not know how long it would to get through security; we arrived at the airport with enough time to spare and not be rushed.  Had we left an hour later, it would have definitely been very close. 
+The hotel shuttle (if available) will take you to...Although we did not select this hotel since it was part of a tour package, we were pleasantly surprised and satisfied with the property!  Beds were comfortable and bathroom was clean;  We were there for two mornings and each day the breakfast buffet was taken down before the 10 am published end time.  Would have been nice to fill up on breakfast before our busy days but knowing what we know now, we suggest  guests to show up before 9:30.  The property location is quiet and located in a corporate business park with only one eating option within walking distance (a little hike if not in shape). We waited about 30 minutes for the shuttle pick up from the airport as it appears they go to all the terminals for pick up before heading to the hotel which is about  20 minutes away.The shuttle return trip to the airport leaves every hour on the hour starting at 6 am and you just show up ten minutes before the hour you want to leave.  We left  2 1/2 hours before out flight since it was our first time flying out of DFW and did not know how long it would to get through security; we arrived at the airport with enough time to spare and not be rushed.  Had we left an hour later, it would have definitely been very close. The hotel shuttle (if available) will take you to restaurants within a 3 mile radius. This is not a problem for those with access to a vehicle, but for others it could make for a very long waiting time waiting for the shuttle (especially if you have cranky hungry children to feed).  Note: there are not too many vending machine options and are a bit quite expensive; the options at front desk are stark and also very pricey. Plan according considering you may be stuck without access to healthy, reasonably priced options.  We ordered dinner one night through GrubHub just so we didn't have to deal with the hotel shuttle, taxis or other car service. If taking a taxi to/from AT &amp; T Stadium from this location, make sure to call different taxis services as price  ranged from $35 to $45 depending on if paying cash or by credit card.We left the air conditioner on cooler than normal and it seemed to help with the musty smell we initially encountered.Overall, considering the amount of time we spent in the room, it was a good value for the money.  If one does not expect a 5 star experience, it will meet expectations.  If I was visiting the city of Dallas in the future, I would stay at a closer location but would recommend it and stay again if staying in the Las Colinas area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r430123310-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>430123310</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>The case of the invisible staff - mystery to be solved</t>
+  </si>
+  <si>
+    <t>We stayed here the evening before an important flight.  The morning of our flight, I called a few times and even visited the front desk - only to find no one there.  I needed to verify whether or not they called a taxi for us.  We had requested it the night before.  It certainly made me very anxious to not be able to speak with the staff at the front desk, and it made me have a much more hectic morning than I anticipated.  Another couple had the same problem.  We could not properly check out of the hotel because no one was at the front desk.  They were missing for at least an hour and a half that morning.  I stay with Marriot hotels all the time, and I know that an airport hotel should have a staff member present in the morning to help assist the patrons who are flying.  In addition, my husband and I both had strong nasal drainage the night we stayed at this hotel.  The minute we left, we were fine.  So, this hotel does not get our best marks.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jeffrey L, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the evening before an important flight.  The morning of our flight, I called a few times and even visited the front desk - only to find no one there.  I needed to verify whether or not they called a taxi for us.  We had requested it the night before.  It certainly made me very anxious to not be able to speak with the staff at the front desk, and it made me have a much more hectic morning than I anticipated.  Another couple had the same problem.  We could not properly check out of the hotel because no one was at the front desk.  They were missing for at least an hour and a half that morning.  I stay with Marriot hotels all the time, and I know that an airport hotel should have a staff member present in the morning to help assist the patrons who are flying.  In addition, my husband and I both had strong nasal drainage the night we stayed at this hotel.  The minute we left, we were fine.  So, this hotel does not get our best marks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r428016057-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>428016057</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Debi made our reunion a success!</t>
+  </si>
+  <si>
+    <t>What a wonderful place for a group of people to hold a 45th high school reunion!  The staff was awesome! They took care of all our needs. We were served a tasty barbecue buffet with all the trimmings! The room we used was perfect for the size of our group and very clean. Our room was amazingly large and clean!! This was my second visit to SpringHill and won't be my last!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2016</t>
+  </si>
+  <si>
+    <t>What a wonderful place for a group of people to hold a 45th high school reunion!  The staff was awesome! They took care of all our needs. We were served a tasty barbecue buffet with all the trimmings! The room we used was perfect for the size of our group and very clean. Our room was amazingly large and clean!! This was my second visit to SpringHill and won't be my last!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r427900951-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>427900951</t>
+  </si>
+  <si>
+    <t>Great place to stay and reunite with friends</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and the rooms were very spacious and clean. Check in was very efficient and friendly.  Breakfast was more than I expected.   In general one of the best hotels we have stayed in over the past years.   There were several single friends and couples and they managed to put us all on the same floor which was a nice surprise bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and the rooms were very spacious and clean. Check in was very efficient and friendly.  Breakfast was more than I expected.   In general one of the best hotels we have stayed in over the past years.   There were several single friends and couples and they managed to put us all on the same floor which was a nice surprise bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r418818896-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>418818896</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>It's Not Old -- But it Needs Updating!</t>
+  </si>
+  <si>
+    <t>First, never-never-never let them put you in room 419 -- I assume there are two on each floor with this horrible triangular layout. It's awful, the room is small but desk is right by the front door, no where near the TV or bathroom. I am used to working at the desk with the TV on, not here (until I moved the desk).Second, the *decor* is meh. Probably would have looked hot 10+ years ago, but now it looks very dated. However everything in the room worked as it was supposed to.Third, the bathroom here has some issues. One was a grab bar at the front wall (by the knob and shower head) that had rust or something coming out at the bottom -- it looked disgusting. Also, there are two different color caulks around the bathtub. One is a nice clean looking white, the other is a dingy beige color that looks dirty.Final nail in the coffin: Their free buffet breakfast. At first glance it looked appealing, but the croissants were old and the sausage patties cold and had some unusual, disgusting textures -- I couldn't spit them out fast enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>First, never-never-never let them put you in room 419 -- I assume there are two on each floor with this horrible triangular layout. It's awful, the room is small but desk is right by the front door, no where near the TV or bathroom. I am used to working at the desk with the TV on, not here (until I moved the desk).Second, the *decor* is meh. Probably would have looked hot 10+ years ago, but now it looks very dated. However everything in the room worked as it was supposed to.Third, the bathroom here has some issues. One was a grab bar at the front wall (by the knob and shower head) that had rust or something coming out at the bottom -- it looked disgusting. Also, there are two different color caulks around the bathtub. One is a nice clean looking white, the other is a dingy beige color that looks dirty.Final nail in the coffin: Their free buffet breakfast. At first glance it looked appealing, but the croissants were old and the sausage patties cold and had some unusual, disgusting textures -- I couldn't spit them out fast enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r414586778-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>414586778</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Paris Hilton - Would not Let her Dog Stay here!!!</t>
+  </si>
+  <si>
+    <t>Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your...Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your airport pickup. I will not recommend and I will not go back. If whoever owns this place reads this review. Please , please clean it up and turn on your air conditioning!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your...Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your airport pickup. I will not recommend and I will not go back. If whoever owns this place reads this review. Please , please clean it up and turn on your air conditioning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r409047471-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>409047471</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Ok for a night</t>
+  </si>
+  <si>
+    <t>Hotel is conveniently located off turnpike. The staff is very friendly and welcoming but  room was a bit dated, stuffy smell. Ok for quick night stop, and maybe a two night stay. Complimentary breakfast is provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is conveniently located off turnpike. The staff is very friendly and welcoming but  room was a bit dated, stuffy smell. Ok for quick night stop, and maybe a two night stay. Complimentary breakfast is provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r408447154-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>408447154</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Nicely renovated, spacious rooms</t>
+  </si>
+  <si>
+    <t>Rooms are nicely renovated and spacious with living room area, microwave and refrigerator.   As a platinum premier member I wasn't offered a welcome bag as I normally get.   I checked in with a co-worker and he got one and he's platinum.  Front desk staff was very friendly and had a large seating area including a full bar.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are nicely renovated and spacious with living room area, microwave and refrigerator.   As a platinum premier member I wasn't offered a welcome bag as I normally get.   I checked in with a co-worker and he got one and he's platinum.  Front desk staff was very friendly and had a large seating area including a full bar.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r400607309-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>400607309</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Little Disappointing</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but not the best for the price. Very clean, but needed some maintenance like walls repainted from scraps from luggage. Rooms are small. Nice wet bar area. Good pressure in shower. Pool was nice. Slippery hallway leading to pool not good. Hot in elevator.Staff was very nice and housekeeping does a great job keeping things clean. Hotel could do a little maintenance and improve the quality greatly. Felt very safe. Located within a mile of restaurants and grocery store. Less than 15 minutes from Grapevine Mills.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded August 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but not the best for the price. Very clean, but needed some maintenance like walls repainted from scraps from luggage. Rooms are small. Nice wet bar area. Good pressure in shower. Pool was nice. Slippery hallway leading to pool not good. Hot in elevator.Staff was very nice and housekeeping does a great job keeping things clean. Hotel could do a little maintenance and improve the quality greatly. Felt very safe. Located within a mile of restaurants and grocery store. Less than 15 minutes from Grapevine Mills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r377320723-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>377320723</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very nice property. It appears to be new. Reasonably priced for a Marriott affiliate. Staff was very friendly after a long day of traveling. Beds were comfy. Location isn't the best as far as other restaurants or gas stations but still a great place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Very nice property. It appears to be new. Reasonably priced for a Marriott affiliate. Staff was very friendly after a long day of traveling. Beds were comfy. Location isn't the best as far as other restaurants or gas stations but still a great place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r376901605-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>376901605</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with helpful and courteous staff!</t>
+  </si>
+  <si>
+    <t>I was here for 2 nights on business. The room was clean and spacious. The large closet was unexpected, but put to good use. The bed was very comfortable. Breakfast offered a great selection and was very tasty.  Lunch was provided both days for our business meetings and the food was excellent. The staff is extremely helpful. I had a hair dryer that started smoking which they quickly replaced. We used the shuttle service to/from the airport and to restaurants for dinner and to CVS. I would recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded May 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2016</t>
+  </si>
+  <si>
+    <t>I was here for 2 nights on business. The room was clean and spacious. The large closet was unexpected, but put to good use. The bed was very comfortable. Breakfast offered a great selection and was very tasty.  Lunch was provided both days for our business meetings and the food was excellent. The staff is extremely helpful. I had a hair dryer that started smoking which they quickly replaced. We used the shuttle service to/from the airport and to restaurants for dinner and to CVS. I would recommend staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r375868314-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>375868314</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay in a Sweet (Suite) Hotel</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel shortly before 3pm for a two night stay and was promptly checked in by a very friendly and helpful, Bryant, who is the Assistant GM. (As a matter of fact, all the staff we met were helpful and friendly.)We asked for a upper floor, quieter room and was given a room on the top floor, away from traffic, excellent.The suite, itself was spacious enough and the partition between the bed and the sofa side was adequate to ensure my better half can sleep in bed when I stayed up later with lights on. The room was very clean and well serviced by housekeeping.We didn't used the TV which was shared between the two halves of the suites during this stay, as we were working on our computers or going out. WiFi was complimentary and quite fast at over 10Mbps most of the time.We also had two good night's of sleep.Breakfast was quite OK for this level of hotel. On Sunday, the only thing we missed was the cut fresh fruit. There were 4 fruit juice choices, 3 waffle makers and two choices of waffles- blueberry and vanilla flavor. We only tried the blueberry as it was different to normal. It smells and tasted great.Breakfast choices was much better on this Monday with strawberries and cut melon. Overall, we had an excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel shortly before 3pm for a two night stay and was promptly checked in by a very friendly and helpful, Bryant, who is the Assistant GM. (As a matter of fact, all the staff we met were helpful and friendly.)We asked for a upper floor, quieter room and was given a room on the top floor, away from traffic, excellent.The suite, itself was spacious enough and the partition between the bed and the sofa side was adequate to ensure my better half can sleep in bed when I stayed up later with lights on. The room was very clean and well serviced by housekeeping.We didn't used the TV which was shared between the two halves of the suites during this stay, as we were working on our computers or going out. WiFi was complimentary and quite fast at over 10Mbps most of the time.We also had two good night's of sleep.Breakfast was quite OK for this level of hotel. On Sunday, the only thing we missed was the cut fresh fruit. There were 4 fruit juice choices, 3 waffle makers and two choices of waffles- blueberry and vanilla flavor. We only tried the blueberry as it was different to normal. It smells and tasted great.Breakfast choices was much better on this Monday with strawberries and cut melon. Overall, we had an excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r367548101-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>367548101</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>The room was great, clean &amp; comfortable bed. Front desk was so nice &amp; courteous, pool was a hit with the kids &amp; the spa was great for the adults. The breakfast was one of the best I've had compared to other continental breakfasts. Overall a great stay with great staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>The room was great, clean &amp; comfortable bed. Front desk was so nice &amp; courteous, pool was a hit with the kids &amp; the spa was great for the adults. The breakfast was one of the best I've had compared to other continental breakfasts. Overall a great stay with great staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r365914370-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>365914370</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay on a layover</t>
+  </si>
+  <si>
+    <t>We stayed here on our way through Dallas on both ends of our trip.  The hotel is great! About 12 minutes from the airport.  Free shuttle, breakfast, and they even drove us to a restaurant and picked us up after.  The staff was so friendly and helpful.  The Room was great...a suite with microwave, fridge, small office and sitting area.  Very comfortable bed and bedding. And all this at a very reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on our way through Dallas on both ends of our trip.  The hotel is great! About 12 minutes from the airport.  Free shuttle, breakfast, and they even drove us to a restaurant and picked us up after.  The staff was so friendly and helpful.  The Room was great...a suite with microwave, fridge, small office and sitting area.  Very comfortable bed and bedding. And all this at a very reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r365528706-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>365528706</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Always an excellent overnight</t>
+  </si>
+  <si>
+    <t>We stayed here enroute after arriving DFW from Alaska and as expected the hotel and room was most comfortable. Great bed and pillows, sufficient free breakfast and van service to DFW and car rental. We have found Springhill Suites most enjoyable whenever we travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here enroute after arriving DFW from Alaska and as expected the hotel and room was most comfortable. Great bed and pillows, sufficient free breakfast and van service to DFW and car rental. We have found Springhill Suites most enjoyable whenever we travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r361351620-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>361351620</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Very nice and quiet property</t>
+  </si>
+  <si>
+    <t>We (me and my 3yo) arrived late (around 10:30) for our one-night stay.  The front desk was very nice and accommodating, to say the least.  My son had already fell asleep in the car.  I found out that I had to work (use my computer) at the last minute, so I told the front desk staff.  I was immediately upgraded to a 2-room suite (essentially it's two connected rooms), so we would have our own spaces and not disturb each other while I work.   Very thoughtful on their part.  Thanks for that!The next morning, we had complimentary breakfast (the usual stuff).  Important thing for us was milk for my child and orange juice for me with bread and cereals.Maybe it's the darkness or the roads in Texas I don't know, but I spent an extra 5-10 minutes trying to find the hotel (I drove a rental).Overall, a very nice stay for both of us!  Will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>We (me and my 3yo) arrived late (around 10:30) for our one-night stay.  The front desk was very nice and accommodating, to say the least.  My son had already fell asleep in the car.  I found out that I had to work (use my computer) at the last minute, so I told the front desk staff.  I was immediately upgraded to a 2-room suite (essentially it's two connected rooms), so we would have our own spaces and not disturb each other while I work.   Very thoughtful on their part.  Thanks for that!The next morning, we had complimentary breakfast (the usual stuff).  Important thing for us was milk for my child and orange juice for me with bread and cereals.Maybe it's the darkness or the roads in Texas I don't know, but I spent an extra 5-10 minutes trying to find the hotel (I drove a rental).Overall, a very nice stay for both of us!  Will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r359022281-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>359022281</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Just perfect for our needs</t>
+  </si>
+  <si>
+    <t>This was perfect for what we needed. We needed one night to attend a local wedding. Our room was a nice suite with office/living/mini-kitchen area. All very clean. Plenty of clean towels, wonderful shower, clean sheets. Nice staff. Breakfast doesn't start until 7, which is a problem if you leave before 7, like us. But the food was ready, so they let us grab what we could even before 7. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>This was perfect for what we needed. We needed one night to attend a local wedding. Our room was a nice suite with office/living/mini-kitchen area. All very clean. Plenty of clean towels, wonderful shower, clean sheets. Nice staff. Breakfast doesn't start until 7, which is a problem if you leave before 7, like us. But the food was ready, so they let us grab what we could even before 7. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r357279132-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>357279132</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Very Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>We were in town for a big convention in Dallas, but decided to stay about 10 miles away. This place was perfect!  The room was nice and big, and had a very comfortable bed.  Also, we were treated to the best breakfast - scrambled eggs, sausage, bacon, croissants, muffins, waffles, fruit...and more.  We were told there were appetizers in the afternoon, but we didn't have the opportunity to sample those.  The staff was very pleasant and accommodating.  The check in and check out process was smooth.  Just a very pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a big convention in Dallas, but decided to stay about 10 miles away. This place was perfect!  The room was nice and big, and had a very comfortable bed.  Also, we were treated to the best breakfast - scrambled eggs, sausage, bacon, croissants, muffins, waffles, fruit...and more.  We were told there were appetizers in the afternoon, but we didn't have the opportunity to sample those.  The staff was very pleasant and accommodating.  The check in and check out process was smooth.  Just a very pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r348250785-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>348250785</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Sensational Experience!!</t>
+  </si>
+  <si>
+    <t>We recently hosted a couples Valentine's retreat at this hotel and everything was perfect. Huge thanks to Debi, Jeff, Bianca and the entire staff who made every wish our group had come true. Thank you for a truly magical weekend and an amazing dinner. We've heard compliment after compliment to the chef who made a surf and turf dinner that could have easily compared to any Four Star restaurant! Looking forward to booking our next event soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>We recently hosted a couples Valentine's retreat at this hotel and everything was perfect. Huge thanks to Debi, Jeff, Bianca and the entire staff who made every wish our group had come true. Thank you for a truly magical weekend and an amazing dinner. We've heard compliment after compliment to the chef who made a surf and turf dinner that could have easily compared to any Four Star restaurant! Looking forward to booking our next event soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r345371776-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>345371776</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>two night stay</t>
+  </si>
+  <si>
+    <t>Very clean, professional staff.  Outstanding breakfast offering.  little lacking in the afternoon appetizers.  bartender best around.  close to airport and shuttle service will take you to any place within 3 miles of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded February 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2016</t>
+  </si>
+  <si>
+    <t>Very clean, professional staff.  Outstanding breakfast offering.  little lacking in the afternoon appetizers.  bartender best around.  close to airport and shuttle service will take you to any place within 3 miles of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r342913002-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>342913002</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while visiting a local University with our son. The staff was great, and very helpful. We had a king suite, it was a nice updated comfortable room. The breakfast was very good, with plenty of options to choose from. We definitely would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded January 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while visiting a local University with our son. The staff was great, and very helpful. We had a king suite, it was a nice updated comfortable room. The breakfast was very good, with plenty of options to choose from. We definitely would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r330609384-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>330609384</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t>Stayed here for the 4th time. Each time my stay has been good. Liked the breakfast, service was efficient with a smile. Liked the free parking. Clean. I think they have great workout facilities and the pool is larger then most in this price range. Overall, a good place to stay at a reasonable price. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for the 4th time. Each time my stay has been good. Liked the breakfast, service was efficient with a smile. Liked the free parking. Clean. I think they have great workout facilities and the pool is larger then most in this price range. Overall, a good place to stay at a reasonable price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r324926279-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>324926279</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Great airport hotel</t>
+  </si>
+  <si>
+    <t>Convenient location to DFW, you can easily get to/from airport through side road, without the need to get on highways, there is also a shuttle provided by the hotel. The room is of good size, providing separate sleeping and working areas, there is a mini fridge in the room. The morning breakfast buffet has good selection of bread, bagel, cereal, drinks,, and hot stuff like eggs, potatoes etc. There is also a sort of happy hour in the evening, which is very nice. Overall , a very good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Convenient location to DFW, you can easily get to/from airport through side road, without the need to get on highways, there is also a shuttle provided by the hotel. The room is of good size, providing separate sleeping and working areas, there is a mini fridge in the room. The morning breakfast buffet has good selection of bread, bagel, cereal, drinks,, and hot stuff like eggs, potatoes etc. There is also a sort of happy hour in the evening, which is very nice. Overall , a very good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r318728849-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>318728849</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Quick easy access to everything</t>
+  </si>
+  <si>
+    <t>The hotel was clean, well kept and up to date.  Easy access on and off highway and surrounding area had great places to eat/shop.  Rooms were spacious.  The only thing I though was a little strange was in the King rooms, there is a wall between the "living area" and the sleeping area.  Right in front of the wall was the TV on a dresser.  You had to turn it one way or the other to watch it.   Just a little observation.  Would have been better mounted a little higher.  Pool area was clean and had fresh towels.  Handicap accessible. Bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean, well kept and up to date.  Easy access on and off highway and surrounding area had great places to eat/shop.  Rooms were spacious.  The only thing I though was a little strange was in the King rooms, there is a wall between the "living area" and the sleeping area.  Right in front of the wall was the TV on a dresser.  You had to turn it one way or the other to watch it.   Just a little observation.  Would have been better mounted a little higher.  Pool area was clean and had fresh towels.  Handicap accessible. Bed was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r312663656-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>312663656</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Location was good (only 20-25 mins away from the attractions we wanted to see); Great staff especially Munzy and Bernard (shuttle driver); Very comfortable suites and bed; Breakfast was good standard assortment and gym/ pool was good in size. We would stay here again when in Dallas.  Since it is in the business section there was little restaurants around but Fuzzy's was only a 5-10 minute safe walk. Great place to go for food and drinks!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Location was good (only 20-25 mins away from the attractions we wanted to see); Great staff especially Munzy and Bernard (shuttle driver); Very comfortable suites and bed; Breakfast was good standard assortment and gym/ pool was good in size. We would stay here again when in Dallas.  Since it is in the business section there was little restaurants around but Fuzzy's was only a 5-10 minute safe walk. Great place to go for food and drinks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r312524487-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>312524487</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Great custoker service!</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling to Irving for a racer reunion. We had reserved a handicap accessible room, needed for my wife. Long before our arrival the hotel called to inform us that the soap dish had fallen off the shower wall. The maintenance man had repaired it, but the staff was concerned the repair would not be fully dry at the time of our arrival. They were concerned that our stay might not be up to our expectations due to a soap dish?!The other experience was really impressive. I left an irreplaceable photo montage' in my room after checkout, and did not realize it until the next day at home (3 hours away).When I called the Hotel the desk clerk, Evette, assured me that the piece was in the office. She commented that it looked valuable, so special care was taken to not harm or destroy it. With great appreciation in my heart I returned as quickly as possible to reclaim my montage'.The entire staff was helpful and courteous during our stay, and went above and beyond when the situation called for exceptional service. THANK YOU!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling to Irving for a racer reunion. We had reserved a handicap accessible room, needed for my wife. Long before our arrival the hotel called to inform us that the soap dish had fallen off the shower wall. The maintenance man had repaired it, but the staff was concerned the repair would not be fully dry at the time of our arrival. They were concerned that our stay might not be up to our expectations due to a soap dish?!The other experience was really impressive. I left an irreplaceable photo montage' in my room after checkout, and did not realize it until the next day at home (3 hours away).When I called the Hotel the desk clerk, Evette, assured me that the piece was in the office. She commented that it looked valuable, so special care was taken to not harm or destroy it. With great appreciation in my heart I returned as quickly as possible to reclaim my montage'.The entire staff was helpful and courteous during our stay, and went above and beyond when the situation called for exceptional service. THANK YOU!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r311552841-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>311552841</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Not Awful</t>
+  </si>
+  <si>
+    <t>I have stayed here for a few in-hotel meetings. It is not very convenient to DFW. Plan on a 20 minute wait for a shuttle van, then a 15 minute ride around the airport while they pick up others, then a 15 minute ride to the hotel.The rooms are clean and what you would expect for Marriott lower end properties. There is a small cafe in the lobby that serves breakfast. Several fast food and casual restaurants are within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here for a few in-hotel meetings. It is not very convenient to DFW. Plan on a 20 minute wait for a shuttle van, then a 15 minute ride around the airport while they pick up others, then a 15 minute ride to the hotel.The rooms are clean and what you would expect for Marriott lower end properties. There is a small cafe in the lobby that serves breakfast. Several fast food and casual restaurants are within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r298493334-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>298493334</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Business Traveler: Great staff...great spot - close to airport, dining, etc.</t>
+  </si>
+  <si>
+    <t>I travel to Dallas quite often for business and stay here each time because of its great staff and convenient location to the airport, dining, and anything else you would require for business or personal needs. It is also a full service hotel so if you feel like staying in after a long day - you can!  It offers a nice free breakfast and dinners as well but the menu items are a better choice. They also offer a weekly dinner special which usually can rival the area restaurants. And again, if you have a long day and stay in, but a drink is required, the full-service bar and bar tender will take good care of you. The service here is above &amp; beyond and because of this you will see the same business travelers so there is always a familiar face and good conversation at the bar. I have stayed in many Marriott's during my travels...this is one of the most enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded August 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2015</t>
+  </si>
+  <si>
+    <t>I travel to Dallas quite often for business and stay here each time because of its great staff and convenient location to the airport, dining, and anything else you would require for business or personal needs. It is also a full service hotel so if you feel like staying in after a long day - you can!  It offers a nice free breakfast and dinners as well but the menu items are a better choice. They also offer a weekly dinner special which usually can rival the area restaurants. And again, if you have a long day and stay in, but a drink is required, the full-service bar and bar tender will take good care of you. The service here is above &amp; beyond and because of this you will see the same business travelers so there is always a familiar face and good conversation at the bar. I have stayed in many Marriott's during my travels...this is one of the most enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r297556237-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>297556237</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>First off, the hotel did kind of goof up by booking us in a smoking room the first night. But they made up for it by giving a free two room suite for the second two nights. Staff was extremely apologetic about the goof up, and very friendly &amp; competent. The room was spotless, spacious, and attractive. The entire hotel was nice and up to date. Its a nice little hotel in a beautiful area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Bryan P, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2015</t>
+  </si>
+  <si>
+    <t>First off, the hotel did kind of goof up by booking us in a smoking room the first night. But they made up for it by giving a free two room suite for the second two nights. Staff was extremely apologetic about the goof up, and very friendly &amp; competent. The room was spotless, spacious, and attractive. The entire hotel was nice and up to date. Its a nice little hotel in a beautiful area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r288660431-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>288660431</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Great breakfast, close to attractions</t>
+  </si>
+  <si>
+    <t>We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus...We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus for my teens.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus...We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus for my teens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r265354299-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>265354299</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>I reserved 3 rooms for 2 nights to attend my niece's wedding in Flower Mound. Called and was told that we would have connecting rooms with a room right across the hall. Check in was easy, BUT the staff acted as if asking for connecting rooms was out of the question. She said they NEVER guarantee that and there was nothing we could do to get connecting rooms. Oh well, we didn't let that ruin our trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Kimberly F, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2015</t>
+  </si>
+  <si>
+    <t>I reserved 3 rooms for 2 nights to attend my niece's wedding in Flower Mound. Called and was told that we would have connecting rooms with a room right across the hall. Check in was easy, BUT the staff acted as if asking for connecting rooms was out of the question. She said they NEVER guarantee that and there was nothing we could do to get connecting rooms. Oh well, we didn't let that ruin our trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r263756982-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>263756982</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Centrally located</t>
+  </si>
+  <si>
+    <t>Quick rides to both Dallas and the airport. Rooms has a few cosmetic issues. The housekeeping staff that we had spoke little English and when they came at 9am to clean the room and we hadn't left yet and we asked her to come back she just said "No." Average stay for hotels overall and a little below average for most Marriott brands we stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kimberly F, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Quick rides to both Dallas and the airport. Rooms has a few cosmetic issues. The housekeeping staff that we had spoke little English and when they came at 9am to clean the room and we hadn't left yet and we asked her to come back she just said "No." Average stay for hotels overall and a little below average for most Marriott brands we stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r260093333-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>260093333</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Great rooms, breakfast troubles</t>
+  </si>
+  <si>
+    <t>This was our first stay with at SpringHill Suites.  The room was everything we desired for a family of 5, clean, comfortable and quiet.  Everything in the room was in good condition.  The price and location were exactly what we were looking for in a hotel.  We have only positive things to say about the room.  The breakfast was another story.  I will add that it was spring break and the hotel was packed.  With that said, if you did not get down to breakfast when it first opened, it would never really be restocked again.  All cereals, breads and yogurts were not restocked as well as no cups for coffee or juice.  The staff appeared overwhelmed with the crowds.  The pool was very cloudy which I attribute to the large number of children and youth staying over spring break.  I believe we would consider staying here again since the room itself, not the breakfast defines the overall quality of the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This was our first stay with at SpringHill Suites.  The room was everything we desired for a family of 5, clean, comfortable and quiet.  Everything in the room was in good condition.  The price and location were exactly what we were looking for in a hotel.  We have only positive things to say about the room.  The breakfast was another story.  I will add that it was spring break and the hotel was packed.  With that said, if you did not get down to breakfast when it first opened, it would never really be restocked again.  All cereals, breads and yogurts were not restocked as well as no cups for coffee or juice.  The staff appeared overwhelmed with the crowds.  The pool was very cloudy which I attribute to the large number of children and youth staying over spring break.  I believe we would consider staying here again since the room itself, not the breakfast defines the overall quality of the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r247824686-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>247824686</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Great stay for a relaxing trip!  My husband and I spent 4 days at this particular hotel and we really were able to relax and enjoy ourselves.  The staff was great!  They were very friendly and made sure that you were enjoying your stay.  I only had one problem and that was that my key deactivated and I had to make several trips downstairs on one of the evenings we were there. Breakfast was a plus.  I was able to go get breakfast and bring it back to the room to eat it. The free Wi-Fi was a plus as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Great stay for a relaxing trip!  My husband and I spent 4 days at this particular hotel and we really were able to relax and enjoy ourselves.  The staff was great!  They were very friendly and made sure that you were enjoying your stay.  I only had one problem and that was that my key deactivated and I had to make several trips downstairs on one of the evenings we were there. Breakfast was a plus.  I was able to go get breakfast and bring it back to the room to eat it. The free Wi-Fi was a plus as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r246971369-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>246971369</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Very poor customer service at the front desk</t>
+  </si>
+  <si>
+    <t>We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us...We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us to please be quiet. If we were loud we certainly would have talked in whispers. Like I said, we had our children with us (ages 9-16). The police never should have been called. It was embarrassing and in front of kids. We travel ALOT for baseball tournaments and I will NEVER stay at another Springhill Suites. MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us...We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us to please be quiet. If we were loud we certainly would have talked in whispers. Like I said, we had our children with us (ages 9-16). The police never should have been called. It was embarrassing and in front of kids. We travel ALOT for baseball tournaments and I will NEVER stay at another Springhill Suites. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r245786678-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>245786678</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Good Location And Good Service</t>
+  </si>
+  <si>
+    <t>I would like to give them a five, but a few minor details reduce to a four.  1.  No Golf Channel on tv.  2. No garment hook in bathroom.  3.  Beside clock does not have light and cannot be read at night.Weekend staff people very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r241408637-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>241408637</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>Good location, easy to find, good value</t>
+  </si>
+  <si>
+    <t>We are upgrading from another chain type hotel to Springhill whenever one is nearby.  The room size and amenities make it very nice and a bit of a treat.  This property was not a disappointment.  In fact, the total service team was well trained and had everything running at top speed.  The property is located at the northeast side of the airport with easy access to sights, shopping and a wide variety of good restaurants.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r237843364-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>237843364</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>NASCAR DALLAS COWBOYS WEEKEND</t>
+  </si>
+  <si>
+    <t>Springhill Suites Dallas Las Colinas provided an awesome stay during my long weekend in the Dallas area.  First, the hotel felt safe.  Its location is away from the hustle and bustle of the freeway yet it still has very easy access when you're ready to hit the road.  The check in staff greeted you on every entrance into the lobby and also when leaving.  They truly seemed eager to help.  The property was clean and comfortable and the rooms were spacious, tidy and quiet.  The breakfast area had ample choices to fit every taste.  If you're in the area for NASCAR at Texas Motor Speedway, the location provides a straight line to the track.  It's also an easy location to stay at if you're in town for the Cowboys games.  Plan a little ahead on dining.  There is nothing super close, especially for a late night fix.  However, if you have time to drive a few minutes in any direction then there is a plethora of dining choices.  I was completely satisfied with my stay and the price I paid for the accommodations.  I do recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael J, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Springhill Suites Dallas Las Colinas provided an awesome stay during my long weekend in the Dallas area.  First, the hotel felt safe.  Its location is away from the hustle and bustle of the freeway yet it still has very easy access when you're ready to hit the road.  The check in staff greeted you on every entrance into the lobby and also when leaving.  They truly seemed eager to help.  The property was clean and comfortable and the rooms were spacious, tidy and quiet.  The breakfast area had ample choices to fit every taste.  If you're in the area for NASCAR at Texas Motor Speedway, the location provides a straight line to the track.  It's also an easy location to stay at if you're in town for the Cowboys games.  Plan a little ahead on dining.  There is nothing super close, especially for a late night fix.  However, if you have time to drive a few minutes in any direction then there is a plethora of dining choices.  I was completely satisfied with my stay and the price I paid for the accommodations.  I do recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r235800786-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>235800786</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Good service</t>
+  </si>
+  <si>
+    <t>Excellent service when we checked in. I believe the front desk persons name was Duncan. Very nice and energetic. Big kudos to the person handling our checkout. I was stuck at a lacrosse tournament and needed a late check out and was accommodated. A huge help and will be remember in the future.  Beyond that it was a typical Marriott which is what I always look for.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2014</t>
+  </si>
+  <si>
+    <t>Excellent service when we checked in. I believe the front desk persons name was Duncan. Very nice and energetic. Big kudos to the person handling our checkout. I was stuck at a lacrosse tournament and needed a late check out and was accommodated. A huge help and will be remember in the future.  Beyond that it was a typical Marriott which is what I always look for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r229511451-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>229511451</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>very happy , very clean</t>
+  </si>
+  <si>
+    <t>i have never sat at a bar by myself in my lifetime, never, unusual but true, but tonight i came back to the hotel to rest to continue the journey for my job and i have been working since five thirty so i went to the bar and ordered a drink a a meal ,, both were served in a great way,, i felt comfortable having a drink and eating dinner,, and then i went on the computer and  sent this as i ate my cookie-- a chocolate chunk cookie,, the staff have been so attentive and i thank you for letting me a person alone travel in such a comfortable way,, it is important as business nessecitates travel today and to travel and not feel afraid is very important for a woman,, so you can feel comfortable and know that everything is okay at this hotel and i am looking for another cookie,, thank you ,, NancyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>i have never sat at a bar by myself in my lifetime, never, unusual but true, but tonight i came back to the hotel to rest to continue the journey for my job and i have been working since five thirty so i went to the bar and ordered a drink a a meal ,, both were served in a great way,, i felt comfortable having a drink and eating dinner,, and then i went on the computer and  sent this as i ate my cookie-- a chocolate chunk cookie,, the staff have been so attentive and i thank you for letting me a person alone travel in such a comfortable way,, it is important as business nessecitates travel today and to travel and not feel afraid is very important for a woman,, so you can feel comfortable and know that everything is okay at this hotel and i am looking for another cookie,, thank you ,, NancyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r228266129-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>228266129</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>A very good property, you know what you're going to get</t>
+  </si>
+  <si>
+    <t>The older Springhill Suites properties are starting to show some age and their layout is dated.  However, this is another SHS property that has been updated and maintained very well.    When a SHS is updated, clean and modernized they are usually very good values as this one was.It was clean, the rooms updated, the staff was excellent and helpful when needed. The location is a bit off the main road a bit, but overall a very good SHS.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>The older Springhill Suites properties are starting to show some age and their layout is dated.  However, this is another SHS property that has been updated and maintained very well.    When a SHS is updated, clean and modernized they are usually very good values as this one was.It was clean, the rooms updated, the staff was excellent and helpful when needed. The location is a bit off the main road a bit, but overall a very good SHS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r227714308-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>227714308</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>My friend and I  were in Dallas for our first Cowboys game and we stayed at this hotel. It was awesome, the staff is very friendly and very helpful. Housekeeping staff did an awesome job and the breakfast was very good, lots of items to choose from. I will stay here again when I am back in Dallas. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael J, General Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>My friend and I  were in Dallas for our first Cowboys game and we stayed at this hotel. It was awesome, the staff is very friendly and very helpful. Housekeeping staff did an awesome job and the breakfast was very good, lots of items to choose from. I will stay here again when I am back in Dallas. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212809108-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>212809108</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Great Location</t>
+  </si>
+  <si>
+    <t>The hotel staff was very friendly and welcoming. The hotel lobby was in great condition and this continued with the hotel rooms which were very spacious and clean. The rooms did have a refrigerator and microwave. The hotel is within driving distance to several restaurants and stores. Would recommend and stay again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212631489-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>212631489</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Not as advertised!</t>
+  </si>
+  <si>
+    <t>I booked this hotel based upon great reviews indicating that it provided transportation to/from the airport, had a great breakfast included, and there was a bar in the hotel.  On arrival on a Friday night at @ 10:20, we were informed that the shuttle service ended at 10 p.m. so it cost us $26 to take a taxi for the 9 minute ride to the hotel.  After check-in we wanted a drink and were told that the bar was closed as there simply was not enough business on weekends to pay a bartender!  Then, to top it off, we asked about breakfast and our shuttle to the airport in the a.m. at 7.  We learned that breakfast did not open until 7 so we missed it!  The room and bed were o.k. but don't book this hotel if you are interested in the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel based upon great reviews indicating that it provided transportation to/from the airport, had a great breakfast included, and there was a bar in the hotel.  On arrival on a Friday night at @ 10:20, we were informed that the shuttle service ended at 10 p.m. so it cost us $26 to take a taxi for the 9 minute ride to the hotel.  After check-in we wanted a drink and were told that the bar was closed as there simply was not enough business on weekends to pay a bartender!  Then, to top it off, we asked about breakfast and our shuttle to the airport in the a.m. at 7.  We learned that breakfast did not open until 7 so we missed it!  The room and bed were o.k. but don't book this hotel if you are interested in the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212324810-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>212324810</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Excellent front desk staff</t>
+  </si>
+  <si>
+    <t>I especially want to recognize Evette Rivera. What a lovely girl. She was so nice and pleasant. Exactly the type of person you want for the front desk! I needed to break up my bill so that I could pay separately for room charges and she handled it great and gave me exactly what I needed. Thank you Evette!MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael J, Manager at SpringHill Suites Dallas DFW Airport East/Las Colinas Irving, responded to this reviewResponded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2014</t>
+  </si>
+  <si>
+    <t>I especially want to recognize Evette Rivera. What a lovely girl. She was so nice and pleasant. Exactly the type of person you want for the front desk! I needed to break up my bill so that I could pay separately for room charges and she handled it great and gave me exactly what I needed. Thank you Evette!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r201619178-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>201619178</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Business trip, with kids in tow.</t>
+  </si>
+  <si>
+    <t>First I'd like to thank the staff of the hotel, especially the front desk.  They were very friendly, and helpful with anything that we might ask, such as dinner places, things to do around there, etc.  The pool was nice (kids would stay in there all day if they wanted to).  The breakfast buffet was ok, but could be hotter, and sometimes they have some kind of weird looking bacon that looked like and tasted like plastic.  The rooms are very roomy, but the bathroom was a interesting configuration.  Also, the beds could be a bit softer.  Overall, a nice place to stay.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r200409881-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>200409881</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Great value and more</t>
+  </si>
+  <si>
+    <t>My friends and I stayed at this hotel for our annual final four trip. Specious rooms and well staffed personnel.  Better than usual free continental breakfast.  Great location, close to the airport , central Dallas and Fort Worth. Free internet Only criticism was that the TVs were slow to go on and change channels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r199422007-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199422007</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Great stay for short business trip</t>
+  </si>
+  <si>
+    <t>Last week I stayed at this Springhill Suites for two nights (a Thurs and Fri) while in the Dallas area for two business conferences.  I generally prefer Marriott brands to collect points, and like the suite concept of these hotels so that I have a separate sitting area to eat a bite, watch tv, or work at a desk.  I had a great rate at this hotel as well at just $89 per night plus tax.  
+The hotel was easy to find, and not far from DFW, where I flew in, but it was far enough away so that jet noise was not an issue.  The interior walls were good as well - I didn't hear my neighbors while in the room.
+The staff at this hotel that I interacted with were very focused on customer service and were all very friendly.  They helped me with directions to area restaurants for dinner, and were very good at pointing out features of the hotel, including breakfast times, evening reception times, etc.  Each and every staff member I met were focused on client service, and I appreciated it.
+The room itself was fine.  It seemed fairly standard for this hotel brand, and it suited me just fine.  The bed linens and towels were clean, as was the room itself.  I also used the hotel's fitness center.  It was clean and usable as well.    
+If I'm back in the DFW area again, I'll...Last week I stayed at this Springhill Suites for two nights (a Thurs and Fri) while in the Dallas area for two business conferences.  I generally prefer Marriott brands to collect points, and like the suite concept of these hotels so that I have a separate sitting area to eat a bite, watch tv, or work at a desk.  I had a great rate at this hotel as well at just $89 per night plus tax.  The hotel was easy to find, and not far from DFW, where I flew in, but it was far enough away so that jet noise was not an issue.  The interior walls were good as well - I didn't hear my neighbors while in the room.The staff at this hotel that I interacted with were very focused on customer service and were all very friendly.  They helped me with directions to area restaurants for dinner, and were very good at pointing out features of the hotel, including breakfast times, evening reception times, etc.  Each and every staff member I met were focused on client service, and I appreciated it.The room itself was fine.  It seemed fairly standard for this hotel brand, and it suited me just fine.  The bed linens and towels were clean, as was the room itself.  I also used the hotel's fitness center.  It was clean and usable as well.    If I'm back in the DFW area again, I'll try to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Last week I stayed at this Springhill Suites for two nights (a Thurs and Fri) while in the Dallas area for two business conferences.  I generally prefer Marriott brands to collect points, and like the suite concept of these hotels so that I have a separate sitting area to eat a bite, watch tv, or work at a desk.  I had a great rate at this hotel as well at just $89 per night plus tax.  
+The hotel was easy to find, and not far from DFW, where I flew in, but it was far enough away so that jet noise was not an issue.  The interior walls were good as well - I didn't hear my neighbors while in the room.
+The staff at this hotel that I interacted with were very focused on customer service and were all very friendly.  They helped me with directions to area restaurants for dinner, and were very good at pointing out features of the hotel, including breakfast times, evening reception times, etc.  Each and every staff member I met were focused on client service, and I appreciated it.
+The room itself was fine.  It seemed fairly standard for this hotel brand, and it suited me just fine.  The bed linens and towels were clean, as was the room itself.  I also used the hotel's fitness center.  It was clean and usable as well.    
+If I'm back in the DFW area again, I'll...Last week I stayed at this Springhill Suites for two nights (a Thurs and Fri) while in the Dallas area for two business conferences.  I generally prefer Marriott brands to collect points, and like the suite concept of these hotels so that I have a separate sitting area to eat a bite, watch tv, or work at a desk.  I had a great rate at this hotel as well at just $89 per night plus tax.  The hotel was easy to find, and not far from DFW, where I flew in, but it was far enough away so that jet noise was not an issue.  The interior walls were good as well - I didn't hear my neighbors while in the room.The staff at this hotel that I interacted with were very focused on customer service and were all very friendly.  They helped me with directions to area restaurants for dinner, and were very good at pointing out features of the hotel, including breakfast times, evening reception times, etc.  Each and every staff member I met were focused on client service, and I appreciated it.The room itself was fine.  It seemed fairly standard for this hotel brand, and it suited me just fine.  The bed linens and towels were clean, as was the room itself.  I also used the hotel's fitness center.  It was clean and usable as well.    If I'm back in the DFW area again, I'll try to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r179583031-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>179583031</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at this locations for 2 days and it was only 5 minutes away from where I needed to be. It is also 20 minutes from the Dallas Love Field airport and I believe there is a shuttle that goes to the DFW airport. It is in a quiet place which is great for getting sleep. The room was sizable and had a mini kitchenette, a living room and bathroom. The staff was friendly I the free Chuppa Chops they had at the front desk :). Complimentary breakfast was served as part of the stay and although I didn't take part in it, it was a wide array of things to choose from. The one issue I had with this hotel was that there was a strong smell in the hall way which did not really agree with me. I don't know if it came from them cleaning the carpet but it was overwhelming for me. Aside that I really didn't have any issues with this place. It is a good place to stay and it is close to the major highway giving quick access to where you need to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this locations for 2 days and it was only 5 minutes away from where I needed to be. It is also 20 minutes from the Dallas Love Field airport and I believe there is a shuttle that goes to the DFW airport. It is in a quiet place which is great for getting sleep. The room was sizable and had a mini kitchenette, a living room and bathroom. The staff was friendly I the free Chuppa Chops they had at the front desk :). Complimentary breakfast was served as part of the stay and although I didn't take part in it, it was a wide array of things to choose from. The one issue I had with this hotel was that there was a strong smell in the hall way which did not really agree with me. I don't know if it came from them cleaning the carpet but it was overwhelming for me. Aside that I really didn't have any issues with this place. It is a good place to stay and it is close to the major highway giving quick access to where you need to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r176547610-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>176547610</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Jewel Hiding in Plain Sight</t>
+  </si>
+  <si>
+    <t>Positives: central location; fantastic breakfast; good value.
+Negatives: refurbished but still worn in places
+All the Marriott properties we usually patronize in the Dallas area were booked over the Labor Day weekend, so we decided to try this location. Overall, we had a good stay.
+Although the hotel is centrally located; in a sense it hides in plain sight. The building can be seen across open lots from Carpenter Freeway but it tends to blend into the background, as if it was camouflaged. 
+I'm not sure how long the property has been open but it's been updated to SpringHill Suites' fresh new look. 
+It seems a few things weren't changed during renovation. Our bed had an obviously used mattress, complete with dip on one side. Although 'seasoned', we slept well on it...better than many newer mattresses.
+Inside and out the hotel was clean. However, a small red lizard managed to invade our bathroom. We saw it the last evening there but have no idea how long it had been in our room.
+Our busy schedule kept us from enjoying the free breakfast until our last day. That was a mistake! This property serves one of the finest hotel breakfasts I've ever tried...free or paid. I commented aloud about the quality and variety of food and another guest replied "that's why I always stay here." The front desk confirmed a number of regular customers come because of breakfast.
+Bottom Line:
+Despite...Positives: central location; fantastic breakfast; good value.Negatives: refurbished but still worn in placesAll the Marriott properties we usually patronize in the Dallas area were booked over the Labor Day weekend, so we decided to try this location. Overall, we had a good stay.Although the hotel is centrally located; in a sense it hides in plain sight. The building can be seen across open lots from Carpenter Freeway but it tends to blend into the background, as if it was camouflaged. I'm not sure how long the property has been open but it's been updated to SpringHill Suites' fresh new look. It seems a few things weren't changed during renovation. Our bed had an obviously used mattress, complete with dip on one side. Although 'seasoned', we slept well on it...better than many newer mattresses.Inside and out the hotel was clean. However, a small red lizard managed to invade our bathroom. We saw it the last evening there but have no idea how long it had been in our room.Our busy schedule kept us from enjoying the free breakfast until our last day. That was a mistake! This property serves one of the finest hotel breakfasts I've ever tried...free or paid. I commented aloud about the quality and variety of food and another guest replied "that's why I always stay here." The front desk confirmed a number of regular customers come because of breakfast.Bottom Line:Despite a few hiccups, we found this to be an excellent property, one we'll seek out first, rather than as a fallback when other properties are unavailable. Prices are reasonable, staff is professional, and the facility comfortable...even if it is a bit cumbersome to reach.MoreShow less</t>
+  </si>
+  <si>
+    <t>Positives: central location; fantastic breakfast; good value.
+Negatives: refurbished but still worn in places
+All the Marriott properties we usually patronize in the Dallas area were booked over the Labor Day weekend, so we decided to try this location. Overall, we had a good stay.
+Although the hotel is centrally located; in a sense it hides in plain sight. The building can be seen across open lots from Carpenter Freeway but it tends to blend into the background, as if it was camouflaged. 
+I'm not sure how long the property has been open but it's been updated to SpringHill Suites' fresh new look. 
+It seems a few things weren't changed during renovation. Our bed had an obviously used mattress, complete with dip on one side. Although 'seasoned', we slept well on it...better than many newer mattresses.
+Inside and out the hotel was clean. However, a small red lizard managed to invade our bathroom. We saw it the last evening there but have no idea how long it had been in our room.
+Our busy schedule kept us from enjoying the free breakfast until our last day. That was a mistake! This property serves one of the finest hotel breakfasts I've ever tried...free or paid. I commented aloud about the quality and variety of food and another guest replied "that's why I always stay here." The front desk confirmed a number of regular customers come because of breakfast.
+Bottom Line:
+Despite...Positives: central location; fantastic breakfast; good value.Negatives: refurbished but still worn in placesAll the Marriott properties we usually patronize in the Dallas area were booked over the Labor Day weekend, so we decided to try this location. Overall, we had a good stay.Although the hotel is centrally located; in a sense it hides in plain sight. The building can be seen across open lots from Carpenter Freeway but it tends to blend into the background, as if it was camouflaged. I'm not sure how long the property has been open but it's been updated to SpringHill Suites' fresh new look. It seems a few things weren't changed during renovation. Our bed had an obviously used mattress, complete with dip on one side. Although 'seasoned', we slept well on it...better than many newer mattresses.Inside and out the hotel was clean. However, a small red lizard managed to invade our bathroom. We saw it the last evening there but have no idea how long it had been in our room.Our busy schedule kept us from enjoying the free breakfast until our last day. That was a mistake! This property serves one of the finest hotel breakfasts I've ever tried...free or paid. I commented aloud about the quality and variety of food and another guest replied "that's why I always stay here." The front desk confirmed a number of regular customers come because of breakfast.Bottom Line:Despite a few hiccups, we found this to be an excellent property, one we'll seek out first, rather than as a fallback when other properties are unavailable. Prices are reasonable, staff is professional, and the facility comfortable...even if it is a bit cumbersome to reach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r167213952-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>167213952</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Great location to see Art Museums in Dallas &amp; Ft. Worth</t>
+  </si>
+  <si>
+    <t>Pro: spacious rooms, great breakfast with everything from eggs to cereal. Friendly staff, very helpful. Good location to access freeways - located near DFW airport so quiet with mostly business travelers. Many restaurants nearby as well.Used as base point to travel and see the many great Art and historic sites in both nearby cities.Con: - hotel room was a little older and floor/carpeting looked somewhat dirty.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r163390539-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>163390539</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent basic hotel</t>
+  </si>
+  <si>
+    <t>In the $100-$200 category shared with Courtyards and others I rank this property very high. They were remodeling some (painting and new blinds that I saw) while I was there. I'm not sure if they'll be replacing the rugs which needed it as well. Otherwise I was impressed with a good TV system, an A/C unit that blasts cold air if you want it to (and the fan stays on all night just as I like it which helps me sleep and insures that you don't hear any hallway noise or noise from adjacent rooms - although overall it was pretty quiet), comfortable beds, a decent breakfast considering there's no additional charge, free WiFi, a good location, nice staff. The housekeeping staff could have been a little quieter and the toilet in my room had a strange bang when it flushed but this is really minor stuff obviously. There's free coffee in the lobby (which could be refreshed more throughout the day) and there's a coffeemaker in the room (check plus). The room decor is your basic level for this type of hotel which kind of grates on you after a while but it's better than paying more than twice the money for a downtown Dallas full service property. Nice touch with a free bottle of Scope in the bathroom. I'll be staying here again on my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>In the $100-$200 category shared with Courtyards and others I rank this property very high. They were remodeling some (painting and new blinds that I saw) while I was there. I'm not sure if they'll be replacing the rugs which needed it as well. Otherwise I was impressed with a good TV system, an A/C unit that blasts cold air if you want it to (and the fan stays on all night just as I like it which helps me sleep and insures that you don't hear any hallway noise or noise from adjacent rooms - although overall it was pretty quiet), comfortable beds, a decent breakfast considering there's no additional charge, free WiFi, a good location, nice staff. The housekeeping staff could have been a little quieter and the toilet in my room had a strange bang when it flushed but this is really minor stuff obviously. There's free coffee in the lobby (which could be refreshed more throughout the day) and there's a coffeemaker in the room (check plus). The room decor is your basic level for this type of hotel which kind of grates on you after a while but it's better than paying more than twice the money for a downtown Dallas full service property. Nice touch with a free bottle of Scope in the bathroom. I'll be staying here again on my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r161773239-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>161773239</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Good place with in door pool! Nice and quiet</t>
+  </si>
+  <si>
+    <t>Stayed here for 14 nights. Ticked most boxes. Breakfast could be better and bar could open for longer at nights . No free dinner and beer like the Homewood Suites has but it's grand. Leave towels on floor after use to get fresh ones. It really iterates me the way hotels try to encourage you to reuse your bath towel to 'save' the environment and at the same time offer you nothing back in terms of your room rate? You help to keep their laundry bill down which is factored into the cost of your room....!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r160975177-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>160975177</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Pretty Impressed for a Limited Service Hotel</t>
+  </si>
+  <si>
+    <t>Travelled here on business, and was less than enthusiastic when I read on-line that they did not have a restaurant or lounge on site. Much to my surprise however, they do have a small reception area in the evening, as well as a nice little bar. There is a "room-service" menu available in the evening, and you can order form it while enjoying beverages with companions.  Snacks for the room in the little "market" are incredibly low priced..... 46 cents for a small carton of milk - amazing! And a complimentary breakfast buffet every morning... They have shuttle service to and from the hotel, and to anywhere you want to go within a 3-mile radius. Complimentary, but don't forget to tip the personable drivers! The incredibly friendly staff may not consider this "Full-Service".... but overall, very impressive!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Travelled here on business, and was less than enthusiastic when I read on-line that they did not have a restaurant or lounge on site. Much to my surprise however, they do have a small reception area in the evening, as well as a nice little bar. There is a "room-service" menu available in the evening, and you can order form it while enjoying beverages with companions.  Snacks for the room in the little "market" are incredibly low priced..... 46 cents for a small carton of milk - amazing! And a complimentary breakfast buffet every morning... They have shuttle service to and from the hotel, and to anywhere you want to go within a 3-mile radius. Complimentary, but don't forget to tip the personable drivers! The incredibly friendly staff may not consider this "Full-Service".... but overall, very impressive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r149538938-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>149538938</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Perfect weekend</t>
+  </si>
+  <si>
+    <t>Spent a weekend visiting with my children and grand kids.The hotel wasn't very crowded even though it was only 20 min from the Six Flags park where Holiday in the park was going on. The hotel seems to be  new or at least very well maintained. The front desk and breakfast staff were all very helpful and friendly. The indoor pool and hot tub area is large and comfortable. It's located at Hwy 114 and the Bush turnpike giving you easy access to Dallas, Arlington and Fort Worth. Plan on using this hotel for visiting friends and family in the future.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r149514036-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>149514036</t>
+  </si>
+  <si>
+    <t>New TVs and a Good Second Stay!</t>
+  </si>
+  <si>
+    <t>Came back for a second time and was very pleased with the updated TVs!  As last time, the staff is SO friendly and helpful it's almost Disneyesque.  We rented a meeting room this time around, only issue was with climate control.  Ordered lunches through the hotel kitchen, they were quite tasty.  Airport shuttle is a nice plus. Nice workout room.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r148605069-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>148605069</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Spent a relaxing vacation</t>
+  </si>
+  <si>
+    <t>The suite rooms are clean and spacious and are much less expensive than other area hotels. The kids enjoyed the indoor pool. The breakfast buffet had a good assortment of food. The staff was very pleasant and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r144189178-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>144189178</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Facility is getting tired</t>
+  </si>
+  <si>
+    <t>The suite had a living room with kitchenette as well as a separate bedroom.  The inside, tho, just seemed to need updating with fabrics.  It was rather economical and fairly easily accessible.  But it wasn't a place I would want to stay more than one night nor would I choose it again.  Time for a facility upgrade.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r142558389-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>142558389</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>I stayed at this property overnight on business and was happy with the accommodations. Check-in was easy, and the room was spacious. There is a couch, another chair, a desk, and a small "kitchenette" with a small fridge, a microwave and a coffee pot. The bathroom area was split - tub/shower and commode in an enclosed area, and the sink area right outside. There was a large walk-in closet as well. I was surprised there was room service. I was actually a little nervous driving in, because I traveled from the airport via taxi, and there is nothing within walking or shuttle distance in terms of dining. The only criticism is that I ordered room service (burger and fries) at 8:30, and had not received it after more than an hour. I was working, so the time got away from me, so I called room service to inquire on the delay. The attendant was very gracoius, and offered to comp my meal. I wasn't happy about eating so late, but I won't hold that experience against the hotel. Stuff happens.  There is an airport shuttle every hour on the hour. Just be sure to let them know if you flew out of Love Field; the shuttle only goes to DFW. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this property overnight on business and was happy with the accommodations. Check-in was easy, and the room was spacious. There is a couch, another chair, a desk, and a small "kitchenette" with a small fridge, a microwave and a coffee pot. The bathroom area was split - tub/shower and commode in an enclosed area, and the sink area right outside. There was a large walk-in closet as well. I was surprised there was room service. I was actually a little nervous driving in, because I traveled from the airport via taxi, and there is nothing within walking or shuttle distance in terms of dining. The only criticism is that I ordered room service (burger and fries) at 8:30, and had not received it after more than an hour. I was working, so the time got away from me, so I called room service to inquire on the delay. The attendant was very gracoius, and offered to comp my meal. I wasn't happy about eating so late, but I won't hold that experience against the hotel. Stuff happens.  There is an airport shuttle every hour on the hour. Just be sure to let them know if you flew out of Love Field; the shuttle only goes to DFW. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r140042812-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>140042812</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>Another good choice for economy travel and comfort</t>
+  </si>
+  <si>
+    <t>I was a bit disappointed when I checked in here, as my first stay in a Springhill property was a fabulous new facility in Alexandria.  The A/C unit was one of the loudest I've ever heard, to the point where it made sleeping difficult.  The shuttle to DFW was convenient and the driver picked me up with an ice cold water - much appreciated on a hot day. Be advised if you're trying to catch an early flight though that the first shuttle will not leave the property untl 6am.  A nice friendly bar and adequate breakfast helps make this slightly above average.  A good value.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r133873259-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>133873259</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>What you would expect</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 days during a business trip. Not much to do around the facility without a vehicle went to the local outlet mall one night.  Not too bad!Breakfast was good and hot, fruit was fresh.Front desk staff were very polite, friendly, and very helpful.Rooms seem a little outdated especially the TVs in the rooms , which you have to turn - and they do not turn all the way!Clean rooms however, would stay again.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r127388710-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127388710</t>
+  </si>
+  <si>
+    <t>04/06/2012</t>
+  </si>
+  <si>
+    <t>TRAVELER BEWARE</t>
+  </si>
+  <si>
+    <t>Shute service not available after 10pm, call when you land not after you have your luggage.  This was not a good value. We argued with the taxi driver for 10 minutes that there was NO hotel shuttle- all the other hotels pick up until 11.Suite California sized.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r123580310-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123580310</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Great Corporate Layover</t>
+  </si>
+  <si>
+    <t>I was in Irving on business and had the pleasure of staying at the Marriott property. I will give you quick bullets on the stay:*  Great location--hotel is within 15min of DFW and off of major highway.  Also has great access to retail shopping pad.*  Food--there is room service available ( I did not use) s well as restaurants (variety) within a 3 min driving distance. I had Chinese food delivered to the hotel and it was wonderful. Breakfast is a great offering.  There are waffles, cereal (hot/cold), yogurt, fresh fruit, eggs, bacon, potato hash, biscuits/gravy, cranberry juice, orange juice.  There are also "to go" containers available.  *  Fitness--there is a fitness center (very small) that will allow you to get the work out done.  there are treadmills (2) and elliptical (1), free weights and a balance ball.  The great news is there is a LA Fitness that is 2-3 minutes away driving--or you can run/jog there if weather permits. *  Room--The room was overall very clean and all of my requirements per my Marriott profile were in room.*Customer Service--  The staff was excellent. I was greeted upon arrival. All of my questions were answered.  The staff goes above and beyond to service its guests.I would stay here again when traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I was in Irving on business and had the pleasure of staying at the Marriott property. I will give you quick bullets on the stay:*  Great location--hotel is within 15min of DFW and off of major highway.  Also has great access to retail shopping pad.*  Food--there is room service available ( I did not use) s well as restaurants (variety) within a 3 min driving distance. I had Chinese food delivered to the hotel and it was wonderful. Breakfast is a great offering.  There are waffles, cereal (hot/cold), yogurt, fresh fruit, eggs, bacon, potato hash, biscuits/gravy, cranberry juice, orange juice.  There are also "to go" containers available.  *  Fitness--there is a fitness center (very small) that will allow you to get the work out done.  there are treadmills (2) and elliptical (1), free weights and a balance ball.  The great news is there is a LA Fitness that is 2-3 minutes away driving--or you can run/jog there if weather permits. *  Room--The room was overall very clean and all of my requirements per my Marriott profile were in room.*Customer Service--  The staff was excellent. I was greeted upon arrival. All of my questions were answered.  The staff goes above and beyond to service its guests.I would stay here again when traveling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r118151447-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118151447</t>
+  </si>
+  <si>
+    <t>09/15/2011</t>
+  </si>
+  <si>
+    <t>Perfect Business Experience in Irving</t>
+  </si>
+  <si>
+    <t>I don't usually give 5 stars to a non-resort, non-luxury hotel but this hotel exceeded expectations that it warrants it.The hotel is located in Irving, fairly close to DFW and walking distance to some office buildings in the area.  First, the staff was amazing.  Helpful in all areas, friendly and try to ensure you have a pleasant experience.The rooms were very nice, clean and assume this hotel is fairly new as it looks it.  There is a bar in the hotel - inexpensive beer &amp; wine - and there is a "happy hour" period where food is out.  We were able to order takeout and have delivered and eat in the bar / restaurant area.  The staff was very helpful in finding the restaurants that would deliver.Lots of free things - wireless, breakfast, shuttle service - and the perfect place to use as a base when doing the business in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I don't usually give 5 stars to a non-resort, non-luxury hotel but this hotel exceeded expectations that it warrants it.The hotel is located in Irving, fairly close to DFW and walking distance to some office buildings in the area.  First, the staff was amazing.  Helpful in all areas, friendly and try to ensure you have a pleasant experience.The rooms were very nice, clean and assume this hotel is fairly new as it looks it.  There is a bar in the hotel - inexpensive beer &amp; wine - and there is a "happy hour" period where food is out.  We were able to order takeout and have delivered and eat in the bar / restaurant area.  The staff was very helpful in finding the restaurants that would deliver.Lots of free things - wireless, breakfast, shuttle service - and the perfect place to use as a base when doing the business in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r118042386-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118042386</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Fun Family weekend</t>
+  </si>
+  <si>
+    <t>My family and three other families stayed at the Springhill suites in Irving over the weekend.  This hotel is located out of the way among office buildings and not easily found if you are not familiar with the area.  But the location is within minutes of most shopping, restaurants, and other things to do.  We were there for a family get together and our group included children from the age of 4 to 17.  The pool area is small but not many guest were there so they had the pool pretty much to themselves.  The hotel staff was extremely helpful.  The hotel was clean and I am very picky about cleaniness of a hotel.  The beds were very comfortable. I stay at a lot of Marriott properties and for business purposes and a quick weekend get away this is a nice property to stay at for a reasonable price. I definitely will stay there on return visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My family and three other families stayed at the Springhill suites in Irving over the weekend.  This hotel is located out of the way among office buildings and not easily found if you are not familiar with the area.  But the location is within minutes of most shopping, restaurants, and other things to do.  We were there for a family get together and our group included children from the age of 4 to 17.  The pool area is small but not many guest were there so they had the pool pretty much to themselves.  The hotel staff was extremely helpful.  The hotel was clean and I am very picky about cleaniness of a hotel.  The beds were very comfortable. I stay at a lot of Marriott properties and for business purposes and a quick weekend get away this is a nice property to stay at for a reasonable price. I definitely will stay there on return visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r116485396-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>116485396</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>We enjoyed it and would go back</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times because of the closeness to Six Flags. This hotel has a great staff, modern decor, and very comfortable beds. My family and I enjoy our stay everytime and is the hotel of choice for us.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r100901903-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>100901903</t>
+  </si>
+  <si>
+    <t>03/20/2011</t>
+  </si>
+  <si>
+    <t>Greatest place for business travelers</t>
+  </si>
+  <si>
+    <t>My colleagues and I frequent this hotel quite regularly.  I've probably logged over 50 nights at this hotel.  It's not a five-start resort, it's a Springhill.  But it's the best Springhill I've stayed at.  They have a decent market, a kitchen and a bar folks!  It's location is perfect, right between DFW airport and Love Field in Dallas. It's a mile away from MacArthur and all the dining and bars you could want.  I prefer not to stay in Dallas when I travel because they kill you on parking, and Dallas is a dump.  Las Colinas is a perfect midway point, and it only takes me 15 minutes in rush hour to travel to our office off of Stemmons Freeway.  I recommend this hotel to anyone who travels and isn't looking for ridiculous accomodations, (sure the Four Seasons is great, but it's not practical).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>My colleagues and I frequent this hotel quite regularly.  I've probably logged over 50 nights at this hotel.  It's not a five-start resort, it's a Springhill.  But it's the best Springhill I've stayed at.  They have a decent market, a kitchen and a bar folks!  It's location is perfect, right between DFW airport and Love Field in Dallas. It's a mile away from MacArthur and all the dining and bars you could want.  I prefer not to stay in Dallas when I travel because they kill you on parking, and Dallas is a dump.  Las Colinas is a perfect midway point, and it only takes me 15 minutes in rush hour to travel to our office off of Stemmons Freeway.  I recommend this hotel to anyone who travels and isn't looking for ridiculous accomodations, (sure the Four Seasons is great, but it's not practical).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r90245434-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>90245434</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>Great location, good breakfast</t>
+  </si>
+  <si>
+    <t>We were greeted by quite possibly the most cheery and chipper desk person I have ever met.  The room was set up in a suite style with a wet bar, couch, and desk on one side, and the bed and bathroom on the other side.  The TV sat between the two halves and swiveled so it could be seen from either side.  It was a 25" standard definition tube TV.  There was also a mini fridge and microwave in the wet bar area.  I was able to easily connect to the free wifi, which seemed to have a decent speed.The free breakfast in the morning was very nice, with hot selections including eggs, sausage, potatoes, oatmeal, make-your-own Belgian waffles, and biscuits and gravy.  There were plenty of cold selections, including fruit, cereal, and muffins.  Overall, it was one of the better breakfasts I've had at a hotel.I was there on business, and it was extremely convenient to the Irving area and to the airport.  However, there was almost nothing within walking distance from the hotel.My only disappointment was when we informed the front desk clerk that we only needed to stay one night, instead of the two for which we had reserved it for.  She informed us that our corporate rate of $79/night would no longer be valid and we'd have to pay almost double the price ($149/night) for our single night's stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were greeted by quite possibly the most cheery and chipper desk person I have ever met.  The room was set up in a suite style with a wet bar, couch, and desk on one side, and the bed and bathroom on the other side.  The TV sat between the two halves and swiveled so it could be seen from either side.  It was a 25" standard definition tube TV.  There was also a mini fridge and microwave in the wet bar area.  I was able to easily connect to the free wifi, which seemed to have a decent speed.The free breakfast in the morning was very nice, with hot selections including eggs, sausage, potatoes, oatmeal, make-your-own Belgian waffles, and biscuits and gravy.  There were plenty of cold selections, including fruit, cereal, and muffins.  Overall, it was one of the better breakfasts I've had at a hotel.I was there on business, and it was extremely convenient to the Irving area and to the airport.  However, there was almost nothing within walking distance from the hotel.My only disappointment was when we informed the front desk clerk that we only needed to stay one night, instead of the two for which we had reserved it for.  She informed us that our corporate rate of $79/night would no longer be valid and we'd have to pay almost double the price ($149/night) for our single night's stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r89544939-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>89544939</t>
+  </si>
+  <si>
+    <t>12/10/2010</t>
+  </si>
+  <si>
+    <t>Very nice stay, a little out of the way</t>
+  </si>
+  <si>
+    <t>This was a fine place to stay for one night while in Dallas solo on business.  The hotel is surrounded by office parks so you'll need a car to get anywhere.  Very straightforward budget-oriented hotel that despite the name is not really suites--just big and spacious rooms.  Checkin was prompt and friendly.  The room was spacious and clean with a comfy sofa and a wet bar that had a fridge and I think a microwave.  Free wired and wifi and plenty of free parking.  The exercise room has a couple of treadmills and other cardio stuff but no weights, next to the decent sized indoor pool.  Hot buffet breakfast until 9:30 with good selection--waffles, scrambled and boiled eggs, breakfast meats and so on.  The hotel isn't particularly new--the tube TV is a giveaway--but it didn't show much signs of wear.  Hard to find a fault with this hotel other than maybe a little out of the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a fine place to stay for one night while in Dallas solo on business.  The hotel is surrounded by office parks so you'll need a car to get anywhere.  Very straightforward budget-oriented hotel that despite the name is not really suites--just big and spacious rooms.  Checkin was prompt and friendly.  The room was spacious and clean with a comfy sofa and a wet bar that had a fridge and I think a microwave.  Free wired and wifi and plenty of free parking.  The exercise room has a couple of treadmills and other cardio stuff but no weights, next to the decent sized indoor pool.  Hot buffet breakfast until 9:30 with good selection--waffles, scrambled and boiled eggs, breakfast meats and so on.  The hotel isn't particularly new--the tube TV is a giveaway--but it didn't show much signs of wear.  Hard to find a fault with this hotel other than maybe a little out of the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r62372997-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>62372997</t>
+  </si>
+  <si>
+    <t>04/25/2010</t>
+  </si>
+  <si>
+    <t>Almost perfect…except for extremely low speed (0.5 kb/sec) broadband</t>
+  </si>
+  <si>
+    <t>A colleague and I lived in this property for nearly a month. Yes, it's clean and friendly and new and located in an area with great access to Dallas and Fort Worth. However, for the price you would think a hotel catering to business travelers—in the midst of a corporate Mecca like Las Colinas—would offer REAL "high-speed internet" instead of speeds slower than a dial-up modem or my 3G cell phone. As someone who literally used my hotel room as an office and sleeping quarters, it was so frustrating that I nearly moved several times; then I found out that most other hotels weren't much better. One night I wanted to download a movie on iTunes and it took 34 hours, normally 45 minutes at home with 9 MB/sec service. Streaming anything was virtually impossible and it was barely adequate to send emails with attachments.Special thanks to Phil, the general manager, who helped with an extra table in my room to expand my work surface and who listened to my complaint about the internet. The staff and housekeepers were fantastic. I used video surveillance to make sure no one came into my room when I posted the "privacy" tag. I had a laptop, a desktop, widescreen LCD, printer, and no worries at all about my stuff walking off.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>A colleague and I lived in this property for nearly a month. Yes, it's clean and friendly and new and located in an area with great access to Dallas and Fort Worth. However, for the price you would think a hotel catering to business travelers—in the midst of a corporate Mecca like Las Colinas—would offer REAL "high-speed internet" instead of speeds slower than a dial-up modem or my 3G cell phone. As someone who literally used my hotel room as an office and sleeping quarters, it was so frustrating that I nearly moved several times; then I found out that most other hotels weren't much better. One night I wanted to download a movie on iTunes and it took 34 hours, normally 45 minutes at home with 9 MB/sec service. Streaming anything was virtually impossible and it was barely adequate to send emails with attachments.Special thanks to Phil, the general manager, who helped with an extra table in my room to expand my work surface and who listened to my complaint about the internet. The staff and housekeepers were fantastic. I used video surveillance to make sure no one came into my room when I posted the "privacy" tag. I had a laptop, a desktop, widescreen LCD, printer, and no worries at all about my stuff walking off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r37194253-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>37194253</t>
+  </si>
+  <si>
+    <t>08/09/2009</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>Met friends for a weekend in Dallas and we all agreed that there was nothing to complain about.  Rooms were clean, very nice, large, and quiet.  With the sitting rooms we were able to visit in each other's rooms, but also used the lobby, which was nice.  Hotel was in a quiet location, but central to everything.  Breakfast was great - you had a good combination of warm and cold.  Lots of choices.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r37027207-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>37027207</t>
+  </si>
+  <si>
+    <t>08/07/2009</t>
+  </si>
+  <si>
+    <t>Nice hotel in good location</t>
+  </si>
+  <si>
+    <t>You get what you expect from a SpringHill Suites.  Newer hotel, nice furnishings, a comfy bed, and a free breakfast.This hotel is no exception.The front desk staff was interesting.  When I checked in the woman was OVERLY friendly.  When I checked out the woman was in a trance (it was 6am).I find the cheaper window unit (wall controlled) fans make too much noise.  This is common in all the newer Fairfield, Towneplace, and Springhill.  You just need to get used to it.This hotel has a good location near lots of restaurants and shopping.  15 min to DFW.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r10090382-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>10090382</t>
+  </si>
+  <si>
+    <t>10/17/2007</t>
+  </si>
+  <si>
+    <t>Mighty Fine</t>
+  </si>
+  <si>
+    <t>Stayed for weekend for Pats-Cowboys game (sorry, you Cowboy fans); and this hotel was in a great location to Texas Stadium, from DFW Airport and local shopping centers and restaurants.  It's off the highway adjacent to corporate office parks, but so are most - if not all hotels in this area.  
+Overall the staff was friendly and extremely helpful even to us Patriots fans (as we found most locals, service staff etc to be;  they love their Cowboys and a good natured rivalry).  Hotel was very clean, rooms were new, cleaning staff was excellent.  Suites were spacious for two or three, maybe with a few kids it would be okay - but four adults in one suite would be too close for comfort since the bedroom and living area are not really "seperated"; just by short walls or angles of the room.  We were able to get three rather than two rooms no problem on the spot and we were all next to each other also.  Beds were comfortable, living area decently spacious with small counter spaceabove a refer and microwave.  I would defintely stay in these suites again upon a return visit, even if for a longer period of time.   
+Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was...Stayed for weekend for Pats-Cowboys game (sorry, you Cowboy fans); and this hotel was in a great location to Texas Stadium, from DFW Airport and local shopping centers and restaurants.  It's off the highway adjacent to corporate office parks, but so are most - if not all hotels in this area.  Overall the staff was friendly and extremely helpful even to us Patriots fans (as we found most locals, service staff etc to be;  they love their Cowboys and a good natured rivalry).  Hotel was very clean, rooms were new, cleaning staff was excellent.  Suites were spacious for two or three, maybe with a few kids it would be okay - but four adults in one suite would be too close for comfort since the bedroom and living area are not really "seperated"; just by short walls or angles of the room.  We were able to get three rather than two rooms no problem on the spot and we were all next to each other also.  Beds were comfortable, living area decently spacious with small counter spaceabove a refer and microwave.  I would defintely stay in these suites again upon a return visit, even if for a longer period of time.   Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was spacious and very clean with big screen TV and computer access.  Parking is ample (free).  Shuttle service to DFW airport runs all day (but starts at 7am - so we one of us had an early flight and they arranged a taxi and wake up call - front desk very nice...).  Area is great acceess to several shopping areas and food choices from fast foods to nice sit down restaurants.  Many choices for eats in any direction.  City of Dallas is only 15-20 minutes or so away.  Fitness room was good - multiple stairsteppers, tradmills and a bike. New equipment.  Pool area(indoor) was good for size of hotel and had a good size jacuzzi also.  Nice accomodations and staff, would highly recommend for this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>Stayed for weekend for Pats-Cowboys game (sorry, you Cowboy fans); and this hotel was in a great location to Texas Stadium, from DFW Airport and local shopping centers and restaurants.  It's off the highway adjacent to corporate office parks, but so are most - if not all hotels in this area.  
+Overall the staff was friendly and extremely helpful even to us Patriots fans (as we found most locals, service staff etc to be;  they love their Cowboys and a good natured rivalry).  Hotel was very clean, rooms were new, cleaning staff was excellent.  Suites were spacious for two or three, maybe with a few kids it would be okay - but four adults in one suite would be too close for comfort since the bedroom and living area are not really "seperated"; just by short walls or angles of the room.  We were able to get three rather than two rooms no problem on the spot and we were all next to each other also.  Beds were comfortable, living area decently spacious with small counter spaceabove a refer and microwave.  I would defintely stay in these suites again upon a return visit, even if for a longer period of time.   
+Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was...Stayed for weekend for Pats-Cowboys game (sorry, you Cowboy fans); and this hotel was in a great location to Texas Stadium, from DFW Airport and local shopping centers and restaurants.  It's off the highway adjacent to corporate office parks, but so are most - if not all hotels in this area.  Overall the staff was friendly and extremely helpful even to us Patriots fans (as we found most locals, service staff etc to be;  they love their Cowboys and a good natured rivalry).  Hotel was very clean, rooms were new, cleaning staff was excellent.  Suites were spacious for two or three, maybe with a few kids it would be okay - but four adults in one suite would be too close for comfort since the bedroom and living area are not really "seperated"; just by short walls or angles of the room.  We were able to get three rather than two rooms no problem on the spot and we were all next to each other also.  Beds were comfortable, living area decently spacious with small counter spaceabove a refer and microwave.  I would defintely stay in these suites again upon a return visit, even if for a longer period of time.   Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was spacious and very clean with big screen TV and computer access.  Parking is ample (free).  Shuttle service to DFW airport runs all day (but starts at 7am - so we one of us had an early flight and they arranged a taxi and wake up call - front desk very nice...).  Area is great acceess to several shopping areas and food choices from fast foods to nice sit down restaurants.  Many choices for eats in any direction.  City of Dallas is only 15-20 minutes or so away.  Fitness room was good - multiple stairsteppers, tradmills and a bike. New equipment.  Pool area(indoor) was good for size of hotel and had a good size jacuzzi also.  Nice accomodations and staff, would highly recommend for this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r8498073-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>8498073</t>
+  </si>
+  <si>
+    <t>08/23/2007</t>
+  </si>
+  <si>
+    <t>Bugs in bed and room!</t>
+  </si>
+  <si>
+    <t>Have stayed in several different rooms due to work over the last few weeks.  One room had a broken air conditioner in such poor condition that the room felt "wet" inside.  Mold is growing (a lot of it) on the wall in the bathroom.  Other rooms I have stayed in (I had to move a couple of times due to these tiny bugs I kept finding) are infested with tiny black or dark brown bugs.  They are found on the walls and ceilings.  Very gross!  The entire hotel must be infested.  When I said something they said they had the hotel sprayed but I still found some climbing the walls.  Forget sleeping.  My first trip there I came home with 2 unusual bites on my ankle and my latest trip one on each arm.  I have to wonder if they are from these bugs.  I dread going back but have to for work.  A colleague I work with told me she also found these bugs in her room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed in several different rooms due to work over the last few weeks.  One room had a broken air conditioner in such poor condition that the room felt "wet" inside.  Mold is growing (a lot of it) on the wall in the bathroom.  Other rooms I have stayed in (I had to move a couple of times due to these tiny bugs I kept finding) are infested with tiny black or dark brown bugs.  They are found on the walls and ceilings.  Very gross!  The entire hotel must be infested.  When I said something they said they had the hotel sprayed but I still found some climbing the walls.  Forget sleeping.  My first trip there I came home with 2 unusual bites on my ankle and my latest trip one on each arm.  I have to wonder if they are from these bugs.  I dread going back but have to for work.  A colleague I work with told me she also found these bugs in her room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r8369257-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>8369257</t>
+  </si>
+  <si>
+    <t>08/06/2007</t>
+  </si>
+  <si>
+    <t>ansbach loved dallas!!</t>
+  </si>
+  <si>
+    <t>We booked this hotel to have a class reunion. The staff there was polite and did everything they could to accommodate our needs. This hotel is a Marriott and kind of still new. The area around the hotel is corporate and the hotel is geared around this. Great place to stay if you are on business, but you will need a rental car. Downtown Dallas is about a 25-30m ride on the freeway. For the record, this particular area is "dry" so if you would like to indulge after the bar has closed, be sure to BYOB ahead of time. If you are looking to get away for business, this would be the place or if you want to be out of the way of the crowds. But for me personally, this is not the area I would stay with my children, it's just not child oriented. The staff is great! The rooms are clean. If in this area for the same thing, I would stay there again. P.S. If coming in through DFW airport and need shuttle to the hotel, you must dial the hotel directly for service as they are not yet listed on the courtesy phones at the airport. Thanks again to the wonderful staff of the hotel. We truly enjoyed our stay there!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>We booked this hotel to have a class reunion. The staff there was polite and did everything they could to accommodate our needs. This hotel is a Marriott and kind of still new. The area around the hotel is corporate and the hotel is geared around this. Great place to stay if you are on business, but you will need a rental car. Downtown Dallas is about a 25-30m ride on the freeway. For the record, this particular area is "dry" so if you would like to indulge after the bar has closed, be sure to BYOB ahead of time. If you are looking to get away for business, this would be the place or if you want to be out of the way of the crowds. But for me personally, this is not the area I would stay with my children, it's just not child oriented. The staff is great! The rooms are clean. If in this area for the same thing, I would stay there again. P.S. If coming in through DFW airport and need shuttle to the hotel, you must dial the hotel directly for service as they are not yet listed on the courtesy phones at the airport. Thanks again to the wonderful staff of the hotel. We truly enjoyed our stay there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r6629346-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>6629346</t>
+  </si>
+  <si>
+    <t>01/19/2007</t>
+  </si>
+  <si>
+    <t>Surprisingly Good Property</t>
+  </si>
+  <si>
+    <t>This is the first time I've stayed at a SpringHill suites, and while I was aprehensive about this place, I'd pick it over Residence Inn pretty much any day.  The decor is modern, the rooms clean, and the place is bright/cheerful.  The rooms are large, with microwave and fridge.  The workout center is OK, but the indoor pools are good.  The property is well located to Las Colinas.  I'll be picking SpringHill suites over Courtyards and Marriotts in future - unless this one is/was an anomaly.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r6099504-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>6099504</t>
+  </si>
+  <si>
+    <t>11/09/2006</t>
+  </si>
+  <si>
+    <t>wow!</t>
+  </si>
+  <si>
+    <t>I was lucky to stay at this property a couple of weeks ago. I was impressed with the decor and attention to detail. Luxury and eloquence is has not been spared. The bathroom had granite, the bed was covered in the softest sheets, and the rooms layout was truly amazing. you may feel as though it is to good to be true, but it was truly amazing property. I will definitely be staying here next time I come to Dallas.</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r5923083-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>5923083</t>
+  </si>
+  <si>
+    <t>10/05/2006</t>
+  </si>
+  <si>
+    <t>Nice new hotel with Front Desk Problems</t>
+  </si>
+  <si>
+    <t>This is a new Hotel located adjacent to a Business Park.  The area is very nice with restaurants and shopping in a new business district not too far away.  The rooms are very comfortable and exceptionally clean.  The problems are with the front desk employees.  Many mistakes were made.  First, with our reservations for the type of room we reserved.  We had to wait over 1/2 hour to finally get into our room.  The worst mistake was giving OUR room and key to another customer.  The people bursting into our room was very frightening. (The dead bolt on our door was broken and had not been fixed).  After this incident, the hotel changed our key and did not notify us.  We only found this out when we returned to our room later and were locked out.  Other than the  management problems, the hotel itself is very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>This is a new Hotel located adjacent to a Business Park.  The area is very nice with restaurants and shopping in a new business district not too far away.  The rooms are very comfortable and exceptionally clean.  The problems are with the front desk employees.  Many mistakes were made.  First, with our reservations for the type of room we reserved.  We had to wait over 1/2 hour to finally get into our room.  The worst mistake was giving OUR room and key to another customer.  The people bursting into our room was very frightening. (The dead bolt on our door was broken and had not been fixed).  After this incident, the hotel changed our key and did not notify us.  We only found this out when we returned to our room later and were locked out.  Other than the  management problems, the hotel itself is very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r4831160-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>4831160</t>
+  </si>
+  <si>
+    <t>04/02/2006</t>
+  </si>
+  <si>
+    <t>Brand New and Refreshing!</t>
+  </si>
+  <si>
+    <t>We stayed at this NEW location April 1-3.  First of all, let me tell you that this hotel has only been opened for 3 weeks and that's why it hasn't been rated as a top rated hotel yet, but in my opinion, it is on it's way for the top ratings.  This hotel is immaculate and refreshing!  Very clean.  You smell the fresh paint when you walk in to check in.  Check-in was a little slow.  I waited 5 minutes for the front desk clerk because she was apparently away showing off the hotel to another customer.  She was very apologetic and friendly when she arrived.  We had a brand-new, never stayed-in before, room on the third floor and I couldn't have been happier.  All the decor was marvelous, granite counter tops in bath and kitchen area, 2 separate closets, microwave.  The room is very spacious.  Because it was soooo nice and clean, we broke our hotel rules and walked on the floor barefeet, we sat on the comforters, used their towels and pillows and even sat on the sofa.  We NEVER do these things in other hotels.  As you can see, I am EXTREMELY picky when it comes to where I lay my head.  The beds were extremely comfortable with feather downs, fluffy pillows. The maid service was great...very friendly maids.  The indoor pools is just picturious and nice.  I could have laid out there all day.  The fitness...We stayed at this NEW location April 1-3.  First of all, let me tell you that this hotel has only been opened for 3 weeks and that's why it hasn't been rated as a top rated hotel yet, but in my opinion, it is on it's way for the top ratings.  This hotel is immaculate and refreshing!  Very clean.  You smell the fresh paint when you walk in to check in.  Check-in was a little slow.  I waited 5 minutes for the front desk clerk because she was apparently away showing off the hotel to another customer.  She was very apologetic and friendly when she arrived.  We had a brand-new, never stayed-in before, room on the third floor and I couldn't have been happier.  All the decor was marvelous, granite counter tops in bath and kitchen area, 2 separate closets, microwave.  The room is very spacious.  Because it was soooo nice and clean, we broke our hotel rules and walked on the floor barefeet, we sat on the comforters, used their towels and pillows and even sat on the sofa.  We NEVER do these things in other hotels.  As you can see, I am EXTREMELY picky when it comes to where I lay my head.  The beds were extremely comfortable with feather downs, fluffy pillows. The maid service was great...very friendly maids.  The indoor pools is just picturious and nice.  I could have laid out there all day.  The fitness room is very nice. The complimentary breakfast buffet can stand room for improvement, as everyone was waiting to use the ONE waffle maker they have, but the food was pretty good.  The location is easily accessible to Hwy 114.  We've really enjoyed our stay at this hotel so much that we have already made reservation to go back in June.  Overall, we were very pleased at Springhill Suites Las Colinas.  This is the place to stay in Dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this NEW location April 1-3.  First of all, let me tell you that this hotel has only been opened for 3 weeks and that's why it hasn't been rated as a top rated hotel yet, but in my opinion, it is on it's way for the top ratings.  This hotel is immaculate and refreshing!  Very clean.  You smell the fresh paint when you walk in to check in.  Check-in was a little slow.  I waited 5 minutes for the front desk clerk because she was apparently away showing off the hotel to another customer.  She was very apologetic and friendly when she arrived.  We had a brand-new, never stayed-in before, room on the third floor and I couldn't have been happier.  All the decor was marvelous, granite counter tops in bath and kitchen area, 2 separate closets, microwave.  The room is very spacious.  Because it was soooo nice and clean, we broke our hotel rules and walked on the floor barefeet, we sat on the comforters, used their towels and pillows and even sat on the sofa.  We NEVER do these things in other hotels.  As you can see, I am EXTREMELY picky when it comes to where I lay my head.  The beds were extremely comfortable with feather downs, fluffy pillows. The maid service was great...very friendly maids.  The indoor pools is just picturious and nice.  I could have laid out there all day.  The fitness...We stayed at this NEW location April 1-3.  First of all, let me tell you that this hotel has only been opened for 3 weeks and that's why it hasn't been rated as a top rated hotel yet, but in my opinion, it is on it's way for the top ratings.  This hotel is immaculate and refreshing!  Very clean.  You smell the fresh paint when you walk in to check in.  Check-in was a little slow.  I waited 5 minutes for the front desk clerk because she was apparently away showing off the hotel to another customer.  She was very apologetic and friendly when she arrived.  We had a brand-new, never stayed-in before, room on the third floor and I couldn't have been happier.  All the decor was marvelous, granite counter tops in bath and kitchen area, 2 separate closets, microwave.  The room is very spacious.  Because it was soooo nice and clean, we broke our hotel rules and walked on the floor barefeet, we sat on the comforters, used their towels and pillows and even sat on the sofa.  We NEVER do these things in other hotels.  As you can see, I am EXTREMELY picky when it comes to where I lay my head.  The beds were extremely comfortable with feather downs, fluffy pillows. The maid service was great...very friendly maids.  The indoor pools is just picturious and nice.  I could have laid out there all day.  The fitness room is very nice. The complimentary breakfast buffet can stand room for improvement, as everyone was waiting to use the ONE waffle maker they have, but the food was pretty good.  The location is easily accessible to Hwy 114.  We've really enjoyed our stay at this hotel so much that we have already made reservation to go back in June.  Overall, we were very pleased at Springhill Suites Las Colinas.  This is the place to stay in Dallas.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2892,6543 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X17" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>243</v>
+      </c>
+      <c r="X30" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>252</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>251</v>
+      </c>
+      <c r="O32" t="s">
+        <v>252</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L33" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>269</v>
+      </c>
+      <c r="X33" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>287</v>
+      </c>
+      <c r="X35" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>303</v>
+      </c>
+      <c r="X37" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>252</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>252</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>328</v>
+      </c>
+      <c r="X40" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>331</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
+      </c>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" t="s">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s">
+        <v>335</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>336</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>252</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>368</v>
+      </c>
+      <c r="X45" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>377</v>
+      </c>
+      <c r="X46" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" t="s">
+        <v>383</v>
+      </c>
+      <c r="L47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>386</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>395</v>
+      </c>
+      <c r="X48" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>412</v>
+      </c>
+      <c r="X50" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" t="s">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>420</v>
+      </c>
+      <c r="X51" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>429</v>
+      </c>
+      <c r="X52" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+      <c r="J53" t="s">
+        <v>434</v>
+      </c>
+      <c r="K53" t="s">
+        <v>435</v>
+      </c>
+      <c r="L53" t="s">
+        <v>436</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>252</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>446</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>456</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>457</v>
+      </c>
+      <c r="J56" t="s">
+        <v>458</v>
+      </c>
+      <c r="K56" t="s">
+        <v>459</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>461</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>462</v>
+      </c>
+      <c r="X56" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>461</v>
+      </c>
+      <c r="O57" t="s">
+        <v>252</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>470</v>
+      </c>
+      <c r="X57" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>478</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>481</v>
+      </c>
+      <c r="J59" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" t="s">
+        <v>374</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>252</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>485</v>
+      </c>
+      <c r="X59" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" t="s">
+        <v>490</v>
+      </c>
+      <c r="K60" t="s">
+        <v>491</v>
+      </c>
+      <c r="L60" t="s">
+        <v>492</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>493</v>
+      </c>
+      <c r="X60" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>497</v>
+      </c>
+      <c r="J61" t="s">
+        <v>498</v>
+      </c>
+      <c r="K61" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" t="s">
+        <v>505</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>506</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>508</v>
+      </c>
+      <c r="J63" t="s">
+        <v>509</v>
+      </c>
+      <c r="K63" t="s">
+        <v>510</v>
+      </c>
+      <c r="L63" t="s">
+        <v>511</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>506</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>512</v>
+      </c>
+      <c r="X63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>520</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>530</v>
+      </c>
+      <c r="X65" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>529</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>538</v>
+      </c>
+      <c r="X66" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>542</v>
+      </c>
+      <c r="J67" t="s">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>181</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>546</v>
+      </c>
+      <c r="X67" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>550</v>
+      </c>
+      <c r="J68" t="s">
+        <v>551</v>
+      </c>
+      <c r="K68" t="s">
+        <v>552</v>
+      </c>
+      <c r="L68" t="s">
+        <v>553</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>554</v>
+      </c>
+      <c r="O68" t="s">
+        <v>252</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s">
+        <v>558</v>
+      </c>
+      <c r="L69" t="s">
+        <v>559</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>554</v>
+      </c>
+      <c r="O69" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" t="s">
+        <v>563</v>
+      </c>
+      <c r="K70" t="s">
+        <v>564</v>
+      </c>
+      <c r="L70" t="s">
+        <v>565</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>554</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>566</v>
+      </c>
+      <c r="X70" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s">
+        <v>578</v>
+      </c>
+      <c r="L72" t="s">
+        <v>579</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>580</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>581</v>
+      </c>
+      <c r="J73" t="s">
+        <v>582</v>
+      </c>
+      <c r="K73" t="s">
+        <v>583</v>
+      </c>
+      <c r="L73" t="s">
+        <v>584</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>585</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>587</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>588</v>
+      </c>
+      <c r="J74" t="s">
+        <v>589</v>
+      </c>
+      <c r="K74" t="s">
+        <v>590</v>
+      </c>
+      <c r="L74" t="s">
+        <v>591</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>592</v>
+      </c>
+      <c r="O74" t="s">
+        <v>208</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" t="s">
+        <v>597</v>
+      </c>
+      <c r="L75" t="s">
+        <v>598</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>252</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>600</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>601</v>
+      </c>
+      <c r="J76" t="s">
+        <v>602</v>
+      </c>
+      <c r="K76" t="s">
+        <v>603</v>
+      </c>
+      <c r="L76" t="s">
+        <v>604</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>605</v>
+      </c>
+      <c r="O76" t="s">
+        <v>252</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>606</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>607</v>
+      </c>
+      <c r="J77" t="s">
+        <v>608</v>
+      </c>
+      <c r="K77" t="s">
+        <v>609</v>
+      </c>
+      <c r="L77" t="s">
+        <v>610</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>611</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>613</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>614</v>
+      </c>
+      <c r="J78" t="s">
+        <v>615</v>
+      </c>
+      <c r="K78" t="s">
+        <v>616</v>
+      </c>
+      <c r="L78" t="s">
+        <v>617</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>619</v>
+      </c>
+      <c r="J79" t="s">
+        <v>620</v>
+      </c>
+      <c r="K79" t="s">
+        <v>621</v>
+      </c>
+      <c r="L79" t="s">
+        <v>622</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>623</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s">
+        <v>627</v>
+      </c>
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+      <c r="L80" t="s">
+        <v>629</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>630</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>631</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>632</v>
+      </c>
+      <c r="J81" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" t="s">
+        <v>633</v>
+      </c>
+      <c r="L81" t="s">
+        <v>634</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>635</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>636</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>637</v>
+      </c>
+      <c r="J82" t="s">
+        <v>638</v>
+      </c>
+      <c r="K82" t="s">
+        <v>639</v>
+      </c>
+      <c r="L82" t="s">
+        <v>640</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>630</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>641</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>644</v>
+      </c>
+      <c r="L83" t="s">
+        <v>645</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>646</v>
+      </c>
+      <c r="O83" t="s">
+        <v>252</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>654</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>655</v>
+      </c>
+      <c r="J85" t="s">
+        <v>656</v>
+      </c>
+      <c r="K85" t="s">
+        <v>657</v>
+      </c>
+      <c r="L85" t="s">
+        <v>658</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>659</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>660</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>661</v>
+      </c>
+      <c r="J86" t="s">
+        <v>662</v>
+      </c>
+      <c r="K86" t="s">
+        <v>663</v>
+      </c>
+      <c r="L86" t="s">
+        <v>664</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>665</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>666</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>667</v>
+      </c>
+      <c r="J87" t="s">
+        <v>668</v>
+      </c>
+      <c r="K87" t="s">
+        <v>669</v>
+      </c>
+      <c r="L87" t="s">
+        <v>670</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>671</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>672</v>
+      </c>
+      <c r="J88" t="s">
+        <v>673</v>
+      </c>
+      <c r="K88" t="s">
+        <v>674</v>
+      </c>
+      <c r="L88" t="s">
+        <v>675</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>676</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>678</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>679</v>
+      </c>
+      <c r="J89" t="s">
+        <v>680</v>
+      </c>
+      <c r="K89" t="s">
+        <v>681</v>
+      </c>
+      <c r="L89" t="s">
+        <v>682</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>683</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>685</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>686</v>
+      </c>
+      <c r="J90" t="s">
+        <v>687</v>
+      </c>
+      <c r="K90" t="s">
+        <v>688</v>
+      </c>
+      <c r="L90" t="s">
+        <v>689</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>690</v>
+      </c>
+      <c r="O90" t="s">
+        <v>60</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>693</v>
+      </c>
+      <c r="J91" t="s">
+        <v>694</v>
+      </c>
+      <c r="K91" t="s">
+        <v>695</v>
+      </c>
+      <c r="L91" t="s">
+        <v>696</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>697</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>698</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>699</v>
+      </c>
+      <c r="J92" t="s">
+        <v>700</v>
+      </c>
+      <c r="K92" t="s">
+        <v>701</v>
+      </c>
+      <c r="L92" t="s">
+        <v>702</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>703</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>705</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>706</v>
+      </c>
+      <c r="J93" t="s">
+        <v>707</v>
+      </c>
+      <c r="K93" t="s">
+        <v>708</v>
+      </c>
+      <c r="L93" t="s">
+        <v>709</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>697</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>711</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>712</v>
+      </c>
+      <c r="J94" t="s">
+        <v>713</v>
+      </c>
+      <c r="K94" t="s">
+        <v>714</v>
+      </c>
+      <c r="L94" t="s">
+        <v>715</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>697</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>717</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>718</v>
+      </c>
+      <c r="J95" t="s">
+        <v>719</v>
+      </c>
+      <c r="K95" t="s">
+        <v>720</v>
+      </c>
+      <c r="L95" t="s">
+        <v>721</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>722</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>724</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>725</v>
+      </c>
+      <c r="J96" t="s">
+        <v>726</v>
+      </c>
+      <c r="K96" t="s">
+        <v>727</v>
+      </c>
+      <c r="L96" t="s">
+        <v>728</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>729</v>
+      </c>
+      <c r="O96" t="s">
+        <v>252</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>730</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" t="s">
+        <v>732</v>
+      </c>
+      <c r="K97" t="s">
+        <v>733</v>
+      </c>
+      <c r="L97" t="s">
+        <v>734</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>729</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>735</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>736</v>
+      </c>
+      <c r="J98" t="s">
+        <v>737</v>
+      </c>
+      <c r="K98" t="s">
+        <v>738</v>
+      </c>
+      <c r="L98" t="s">
+        <v>739</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>740</v>
+      </c>
+      <c r="O98" t="s">
+        <v>60</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>742</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>743</v>
+      </c>
+      <c r="J99" t="s">
+        <v>744</v>
+      </c>
+      <c r="K99" t="s">
+        <v>745</v>
+      </c>
+      <c r="L99" t="s">
+        <v>746</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>748</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>749</v>
+      </c>
+      <c r="J100" t="s">
+        <v>750</v>
+      </c>
+      <c r="K100" t="s">
+        <v>751</v>
+      </c>
+      <c r="L100" t="s">
+        <v>752</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>753</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>755</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>756</v>
+      </c>
+      <c r="J101" t="s">
+        <v>757</v>
+      </c>
+      <c r="K101" t="s">
+        <v>758</v>
+      </c>
+      <c r="L101" t="s">
+        <v>759</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>760</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>761</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>762</v>
+      </c>
+      <c r="J102" t="s">
+        <v>763</v>
+      </c>
+      <c r="K102" t="s">
+        <v>764</v>
+      </c>
+      <c r="L102" t="s">
+        <v>765</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>766</v>
+      </c>
+      <c r="O102" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>767</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>768</v>
+      </c>
+      <c r="J103" t="s">
+        <v>769</v>
+      </c>
+      <c r="K103" t="s">
+        <v>770</v>
+      </c>
+      <c r="L103" t="s">
+        <v>771</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>772</v>
+      </c>
+      <c r="O103" t="s">
+        <v>252</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>54191</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>774</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>775</v>
+      </c>
+      <c r="J104" t="s">
+        <v>776</v>
+      </c>
+      <c r="K104" t="s">
+        <v>777</v>
+      </c>
+      <c r="L104" t="s">
+        <v>778</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>779</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_692.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_692.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="881">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tav T</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Ravi M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r570611706-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>This is an at best reasonable place to stay at. Great location. The room (2 queen bed + sofa bed) was decent. Beds were good to sleep in. Sofa bed was a nightmare to sleep in, springs kept poking me all night.Ok for a business trip. But not recommended for family, although I did see a bunch of families.More</t>
   </si>
   <si>
+    <t>DTA1106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r564683213-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>This was a nice hotel. Very clean and neat. The beds were comfortable. It's close to the airport and they will shuttle you over while you  leave your car in their parking lot. They had a very nice breakfast buffet.More</t>
   </si>
   <si>
+    <t>TexasRay54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r550028838-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Jennifer_ATX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r549605781-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>travelingAggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r546178793-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>I stayed at this hotel while attending a conference at the new Irving convention center. Everything was very clean. The Internet speed was fast enough for Netflix. Exercise room was great with 2 treadmills and weights. Lots of restaurants nearby.</t>
   </si>
   <si>
+    <t>NY_Dog_Mama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r536926084-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Narai E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r536297511-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>I travel to Dallas twice a year for a convention with my family and we’ve always had bad experiences with hotels, until now! The staff is so nice and friendly, the prices are amazingly cheap, and they have great breakfast! The rooms are big and comfortable! Definitely recommend it!</t>
   </si>
   <si>
+    <t>jmaderas777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r535415502-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>We were here for a business closing, so things were very stressful.  The staff made it better by being so gracious and attentive to our needs.  I train customer service for a living and this crew is right on.  Amazing to see how the General Manager, Maritz, greets you in the morning when you leave and again, greets you at night when you return - this is dedication and passion.</t>
   </si>
   <si>
+    <t>lmlmlm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r532354567-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>Clean, reasonably priced and breakfast included. Shuttle service leaves a lot to be desired - waited 25 minutes for pick up - and then driver said he didn't know he was picking us up despite calling Front desk 3 times. More</t>
   </si>
   <si>
+    <t>mikehedy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r530349202-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>When I checked in, my room had a such a musty, stale, a moldy smell.  I went back to the front desk and asked for a new room. My new room also had the same smell.  I would relate it to a 10 year old, wet sock filled with cigarette butts.  Staff is very nice but hotel needs a remodel.More</t>
   </si>
   <si>
+    <t>funseekergirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r526537696-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>We recently stayed at this hotel and I do have to say we were pleasantly surprised with their free breakfast. We've stayed at many hotels but this hotel went a little above and beyond. The food was really good and they even had take out containers and bags for people on the go. They had fresh fruit and greek yogurt and their breakfast staff was so friendly. It seems like so many times the breakfast people are always mad or tired and don't really like their jobs but this was such a different experience at this hotel and really made a difference in our day after a long international flight across the ocean. We also appreciated their free airport shuttle since we were stranded without a rental car. We will definitely return if we are ever in the DFW area again. More</t>
   </si>
   <si>
+    <t>Leticia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r517546056-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>We choose this hotel as my husband wanted to go to Belk and this was closest hotel with airport shuttle. Note you must call airport shuttle at the hotel number. We live overseas and did not have roaming on our phone we used complimentary hotel number in the arrivals Hall to call hotel. Driver came timely took 20 minutes considering where it is located. Friendly hotel staff both driver and all front desk agent. Spacious clean room only thing noticed it had an interesting smell when we walked in. There isn't much around in terms of restaurants. Shuttle said would take you within 3 miles of hotel. Did notice they have in room dining service. Next Day took 7am shuttle. Shuttles leave every hour from 6am to airport. Complimentary breakfast was really good. Lots of variety. Hot - eggs, bacon, sausage, potatoes, oatmeak etc and cold - yoghurt, cereal The food was delicious.I would stay again.More</t>
   </si>
   <si>
+    <t>BMDehsuh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r503033179-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew...Was scheduled to have my family reunion at this hotel July 14-17. Set up what I was told was the best rate later to find out that the regular rate was lower. The hotel 'accommodated' me by adjusting the block of rooms for the going rate only after I inquired about it. When I initially inquired (9 days before our determined cut off date of July 1st) I was told by the director of sales via email that "being that you only have 3 reservations , I shouldn't be offering a discounted rate"--discounted?? . Then 2 days before the arrival of the majority of my family, I contacted the director of sales for an updated reservation list. The director of sales and I had a phone conversation for about 10 minutes about a variety of things on the 12th. Some family members arrived on the 13th of July and my family let me know that there was sign that stated the pool would be closed for maintenance from the 13th-17th...the dates of the reunion. Our family loves the pool and the pool was one of the reasons that this hotel had originally been chosen. As soon as my cousin notified me,  I contacted the hotel and was told by the director of sales that she did not know it would be closed (although when I spoke face to face with the GM that same day,  I was told they knew 2 days prior). I had just spoken to the director of sales the day before (on the 12th) and she did not mention anything about it and besides, she knew on the 13th but did not bother to contact me to make me aware of the situation. The GM did give us permission to ride the hotel shuttle- if it was available- to a sister property that was about a 15 minute commute and use their pool-- not very convenient. Never once did a staff member apologize about the situation.  Needless to say, we cancelled all of the rooms and moved to another hotel in the area that was very accommodating for our family reunion!More</t>
   </si>
   <si>
+    <t>Doris D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r501066088-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>Hotel has some operating problems. Moved to 3 different rooms because of damp, musty smells. Traveling w 8 business colleagues all w similar complaint. AC in elevator area not working on each floor. Feels like 94-degrees during the 3 minute wait. Spacious room, clean with fridge, microwave and sitting room area. Staff very attentive and apologetic. Sprayed room w fragrance to air out. That's a temporary fix.Shuttle too busy to be helpful. More</t>
   </si>
   <si>
+    <t>Fotopunk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r491227653-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues...My flight was delayed 4x and then cancelled at about 12:30am. There weren't many hotel options in the area, but the Marriott reservations number was able to book me at this hotel.  I took a cab there since the shuttle was no longer running. I walked into the lobby with a bunch of people waiting and a flustered staff. The staff handled the stress fairly well, although a phone conversation trying to get a housekeeping staff to come into work should have been done in a back office rather than in front of a lobby full of guests. I was finally assigned a room. I went to my room and found a mushroom (literally) on the tv stand, the floor between the bed was soaked, the nightstand was covered in what I hope was water, and the beds were damp. There was water (I hope) all over the toilet seat lid and in the soap dishes. The room was HORRIBLE. I went back down to the lobby to find the guests waiting were now totaling about 25, many of which were there when I checked in. They had reservations but many rooms were dirty so they couldn't get into them. The staff was still being resourceful and trying to get guests to other hotels or go clean the rooms themselves.  I pulled the Assistant GM aside and said that I had a room and showed him pictures of the issues in my room. He and his coworker were shocked. I said that this was totally unacceptable but know there clearly was no where else for me to go. No one offered to clean up the mess for me. I slept in the room on the couch that night, after discovering that I had no hot water in my room. I slept a few hours then got up to have another icy cold shower and a quick mediocre breakfast and left.  Thankfully the assistant GM comped my room.  I know that this isn't the standard for SpringHill Suites, as I had just stayed Mon-Fri at a SpringHill (booked under my company) in Fort Worth (University). Clearly this SHS has a housekeeping and management issue. The staff showed a lot of professionalism and ability to handle a room of tired, frustrated guests, but sadly that does not make up for a terrible experience.More</t>
   </si>
   <si>
+    <t>Flyby0161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r487965257-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r482365095-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t xml:space="preserve">I stay at Marriott properties a lot of the time. The consistency is appreciated. Good, friendly staff here. Wished the breakfast entrees changed a little but they were consistent...Rooms are getting a little tired. This place is full, a lot. Clean room but I noticed an old water bottle under the bed. Remote was missing but a call to the front desk remedied that. Overall, a good value in a hot market. </t>
   </si>
   <si>
+    <t>Christina F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r468098834-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -543,6 +600,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>plsitton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r462579694-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>The pipe creaked and whistled any time ANY one in the hotel turned on the water, there were 10 empty sprite bottles behind my nightstand and the room had several carpet stains.  When I checked out, I told the manager and I was told that the points that I used to book the room would be refunded but they never were.  Not surprised.  This has to be the Marriott ever!More</t>
   </si>
   <si>
+    <t>Melissa_AZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r462352215-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -591,6 +654,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Earl J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r446089332-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>ymbd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r444914019-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Booked this hotel for a weekend in Arlington to attend holiday in the park at six flags.  Excellent hotel, excellent location and EXCELLENT beds.  The beds at the hotels in arlington are TERRIBLE, so I decided to book the rooms in the next town and it was the best decision!</t>
   </si>
   <si>
+    <t>Anthony A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r439973272-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -643,6 +715,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ana R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r433648420-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
@@ -669,6 +744,9 @@
 The hotel shuttle (if available) will take you to...Although we did not select this hotel since it was part of a tour package, we were pleasantly surprised and satisfied with the property!  Beds were comfortable and bathroom was clean;  We were there for two mornings and each day the breakfast buffet was taken down before the 10 am published end time.  Would have been nice to fill up on breakfast before our busy days but knowing what we know now, we suggest  guests to show up before 9:30.  The property location is quiet and located in a corporate business park with only one eating option within walking distance (a little hike if not in shape). We waited about 30 minutes for the shuttle pick up from the airport as it appears they go to all the terminals for pick up before heading to the hotel which is about  20 minutes away.The shuttle return trip to the airport leaves every hour on the hour starting at 6 am and you just show up ten minutes before the hour you want to leave.  We left  2 1/2 hours before out flight since it was our first time flying out of DFW and did not know how long it would to get through security; we arrived at the airport with enough time to spare and not be rushed.  Had we left an hour later, it would have definitely been very close. The hotel shuttle (if available) will take you to restaurants within a 3 mile radius. This is not a problem for those with access to a vehicle, but for others it could make for a very long waiting time waiting for the shuttle (especially if you have cranky hungry children to feed).  Note: there are not too many vending machine options and are a bit quite expensive; the options at front desk are stark and also very pricey. Plan according considering you may be stuck without access to healthy, reasonably priced options.  We ordered dinner one night through GrubHub just so we didn't have to deal with the hotel shuttle, taxis or other car service. If taking a taxi to/from AT &amp; T Stadium from this location, make sure to call different taxis services as price  ranged from $35 to $45 depending on if paying cash or by credit card.We left the air conditioner on cooler than normal and it seemed to help with the musty smell we initially encountered.Overall, considering the amount of time we spent in the room, it was a good value for the money.  If one does not expect a 5 star experience, it will meet expectations.  If I was visiting the city of Dallas in the future, I would stay at a closer location but would recommend it and stay again if staying in the Las Colinas area.More</t>
   </si>
   <si>
+    <t>Marie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r430123310-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -696,6 +774,9 @@
     <t>We stayed here the evening before an important flight.  The morning of our flight, I called a few times and even visited the front desk - only to find no one there.  I needed to verify whether or not they called a taxi for us.  We had requested it the night before.  It certainly made me very anxious to not be able to speak with the staff at the front desk, and it made me have a much more hectic morning than I anticipated.  Another couple had the same problem.  We could not properly check out of the hotel because no one was at the front desk.  They were missing for at least an hour and a half that morning.  I stay with Marriot hotels all the time, and I know that an airport hotel should have a staff member present in the morning to help assist the patrons who are flying.  In addition, my husband and I both had strong nasal drainage the night we stayed at this hotel.  The minute we left, we were fine.  So, this hotel does not get our best marks.More</t>
   </si>
   <si>
+    <t>rologsdon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r428016057-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>What a wonderful place for a group of people to hold a 45th high school reunion!  The staff was awesome! They took care of all our needs. We were served a tasty barbecue buffet with all the trimmings! The room we used was perfect for the size of our group and very clean. Our room was amazingly large and clean!! This was my second visit to SpringHill and won't be my last!More</t>
   </si>
   <si>
+    <t>driller01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r427900951-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -735,6 +819,9 @@
     <t>We stayed 2 nights and the rooms were very spacious and clean. Check in was very efficient and friendly.  Breakfast was more than I expected.   In general one of the best hotels we have stayed in over the past years.   There were several single friends and couples and they managed to put us all on the same floor which was a nice surprise bonus.More</t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r418818896-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>First, never-never-never let them put you in room 419 -- I assume there are two on each floor with this horrible triangular layout. It's awful, the room is small but desk is right by the front door, no where near the TV or bathroom. I am used to working at the desk with the TV on, not here (until I moved the desk).Second, the *decor* is meh. Probably would have looked hot 10+ years ago, but now it looks very dated. However everything in the room worked as it was supposed to.Third, the bathroom here has some issues. One was a grab bar at the front wall (by the knob and shower head) that had rust or something coming out at the bottom -- it looked disgusting. Also, there are two different color caulks around the bathtub. One is a nice clean looking white, the other is a dingy beige color that looks dirty.Final nail in the coffin: Their free buffet breakfast. At first glance it looked appealing, but the croissants were old and the sausage patties cold and had some unusual, disgusting textures -- I couldn't spit them out fast enough.More</t>
   </si>
   <si>
+    <t>elaine l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r414586778-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -792,6 +882,9 @@
     <t>Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your...Never staying at a Springhill Suites we gave it a try since it is in the Hilton  family of Hotels. Well let me tell you it looked fine on the outside kinda like a holiday inn express. But immediately walking in from the August heat we did not feel much relief from the heat. Air conditioning was not cold enough to make the place smell fresh. front office clerk "Lee" was very informative and seemed to love his job. 1st room stunk like old musty tenny shoes. Stains on couch and dirty walls. Lee gave us another room this one had heater on. I turned on air conditioning it started cooling fast. It had dirty couch with stains, my husband had to work on tv to make it come on. The place was Grose but the bed was clean it at least looked clean because sheets and all where white and looked good. I did sit on couch to look thru my suitcase started to itch got scared may be fleas or something so I left my clothes in suitcase. No heat in the hallways or elevators, I guess they are trying to save up money to get new furniture in the rooms because the couches need replaced or just remove them if you can't keep them clean. One good point. Free shuttle to DFW free 7 nights free parking. Don't have to stay on your return night from your airport pickup. I will not recommend and I will not go back. If whoever owns this place reads this review. Please , please clean it up and turn on your air conditioning!More</t>
   </si>
   <si>
+    <t>578brighta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r409047471-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -816,6 +909,9 @@
     <t>Hotel is conveniently located off turnpike. The staff is very friendly and welcoming but  room was a bit dated, stuffy smell. Ok for quick night stop, and maybe a two night stay. Complimentary breakfast is provided.More</t>
   </si>
   <si>
+    <t>Katherine P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r408447154-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -840,6 +936,9 @@
     <t>Rooms are nicely renovated and spacious with living room area, microwave and refrigerator.   As a platinum premier member I wasn't offered a welcome bag as I normally get.   I checked in with a co-worker and he got one and he's platinum.  Front desk staff was very friendly and had a large seating area including a full bar.  More</t>
   </si>
   <si>
+    <t>AngLilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r400607309-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -867,6 +966,9 @@
     <t>The hotel was nice, but not the best for the price. Very clean, but needed some maintenance like walls repainted from scraps from luggage. Rooms are small. Nice wet bar area. Good pressure in shower. Pool was nice. Slippery hallway leading to pool not good. Hot in elevator.Staff was very nice and housekeeping does a great job keeping things clean. Hotel could do a little maintenance and improve the quality greatly. Felt very safe. Located within a mile of restaurants and grocery store. Less than 15 minutes from Grapevine Mills.More</t>
   </si>
   <si>
+    <t>Brandon P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r377320723-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -894,6 +996,9 @@
     <t>Very nice property. It appears to be new. Reasonably priced for a Marriott affiliate. Staff was very friendly after a long day of traveling. Beds were comfy. Location isn't the best as far as other restaurants or gas stations but still a great place to stay. More</t>
   </si>
   <si>
+    <t>SarahAmy531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r376901605-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1023,9 @@
     <t>I was here for 2 nights on business. The room was clean and spacious. The large closet was unexpected, but put to good use. The bed was very comfortable. Breakfast offered a great selection and was very tasty.  Lunch was provided both days for our business meetings and the food was excellent. The staff is extremely helpful. I had a hair dryer that started smoking which they quickly replaced. We used the shuttle service to/from the airport and to restaurants for dinner and to CVS. I would recommend staying here. More</t>
   </si>
   <si>
+    <t>H L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r375868314-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1050,9 @@
     <t>We arrived at the hotel shortly before 3pm for a two night stay and was promptly checked in by a very friendly and helpful, Bryant, who is the Assistant GM. (As a matter of fact, all the staff we met were helpful and friendly.)We asked for a upper floor, quieter room and was given a room on the top floor, away from traffic, excellent.The suite, itself was spacious enough and the partition between the bed and the sofa side was adequate to ensure my better half can sleep in bed when I stayed up later with lights on. The room was very clean and well serviced by housekeeping.We didn't used the TV which was shared between the two halves of the suites during this stay, as we were working on our computers or going out. WiFi was complimentary and quite fast at over 10Mbps most of the time.We also had two good night's of sleep.Breakfast was quite OK for this level of hotel. On Sunday, the only thing we missed was the cut fresh fruit. There were 4 fruit juice choices, 3 waffle makers and two choices of waffles- blueberry and vanilla flavor. We only tried the blueberry as it was different to normal. It smells and tasted great.Breakfast choices was much better on this Monday with strawberries and cut melon. Overall, we had an excellent stay.More</t>
   </si>
   <si>
+    <t>Tracy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r367548101-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1080,9 @@
     <t>The room was great, clean &amp; comfortable bed. Front desk was so nice &amp; courteous, pool was a hit with the kids &amp; the spa was great for the adults. The breakfast was one of the best I've had compared to other continental breakfasts. Overall a great stay with great staff.More</t>
   </si>
   <si>
+    <t>Jolynne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r365914370-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1107,9 @@
     <t>We stayed here on our way through Dallas on both ends of our trip.  The hotel is great! About 12 minutes from the airport.  Free shuttle, breakfast, and they even drove us to a restaurant and picked us up after.  The staff was so friendly and helpful.  The Room was great...a suite with microwave, fridge, small office and sitting area.  Very comfortable bed and bedding. And all this at a very reasonable price.More</t>
   </si>
   <si>
+    <t>Larry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r365528706-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1134,9 @@
     <t>We stayed here enroute after arriving DFW from Alaska and as expected the hotel and room was most comfortable. Great bed and pillows, sufficient free breakfast and van service to DFW and car rental. We have found Springhill Suites most enjoyable whenever we travel.More</t>
   </si>
   <si>
+    <t>Alex T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r361351620-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1164,9 @@
     <t>We (me and my 3yo) arrived late (around 10:30) for our one-night stay.  The front desk was very nice and accommodating, to say the least.  My son had already fell asleep in the car.  I found out that I had to work (use my computer) at the last minute, so I told the front desk staff.  I was immediately upgraded to a 2-room suite (essentially it's two connected rooms), so we would have our own spaces and not disturb each other while I work.   Very thoughtful on their part.  Thanks for that!The next morning, we had complimentary breakfast (the usual stuff).  Important thing for us was milk for my child and orange juice for me with bread and cereals.Maybe it's the darkness or the roads in Texas I don't know, but I spent an extra 5-10 minutes trying to find the hotel (I drove a rental).Overall, a very nice stay for both of us!  Will stay here again!More</t>
   </si>
   <si>
+    <t>Babuszka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r359022281-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1191,9 @@
     <t>This was perfect for what we needed. We needed one night to attend a local wedding. Our room was a nice suite with office/living/mini-kitchen area. All very clean. Plenty of clean towels, wonderful shower, clean sheets. Nice staff. Breakfast doesn't start until 7, which is a problem if you leave before 7, like us. But the food was ready, so they let us grab what we could even before 7. Thank you!More</t>
   </si>
   <si>
+    <t>Sandyinmytoes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r357279132-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1212,9 @@
     <t>We were in town for a big convention in Dallas, but decided to stay about 10 miles away. This place was perfect!  The room was nice and big, and had a very comfortable bed.  Also, we were treated to the best breakfast - scrambled eggs, sausage, bacon, croissants, muffins, waffles, fruit...and more.  We were told there were appetizers in the afternoon, but we didn't have the opportunity to sample those.  The staff was very pleasant and accommodating.  The check in and check out process was smooth.  Just a very pleasant stay.More</t>
   </si>
   <si>
+    <t>Bricynt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r348250785-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1242,9 @@
     <t>We recently hosted a couples Valentine's retreat at this hotel and everything was perfect. Huge thanks to Debi, Jeff, Bianca and the entire staff who made every wish our group had come true. Thank you for a truly magical weekend and an amazing dinner. We've heard compliment after compliment to the chef who made a surf and turf dinner that could have easily compared to any Four Star restaurant! Looking forward to booking our next event soon!More</t>
   </si>
   <si>
+    <t>jteal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r345371776-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1269,9 @@
     <t>Very clean, professional staff.  Outstanding breakfast offering.  little lacking in the afternoon appetizers.  bartender best around.  close to airport and shuttle service will take you to any place within 3 miles of hotel.More</t>
   </si>
   <si>
+    <t>mmhaugland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r342913002-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1326,9 @@
     <t>Stayed here for the 4th time. Each time my stay has been good. Liked the breakfast, service was efficient with a smile. Liked the free parking. Clean. I think they have great workout facilities and the pool is larger then most in this price range. Overall, a good place to stay at a reasonable price. More</t>
   </si>
   <si>
+    <t>GeminiStrike196</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r324926279-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1356,9 @@
     <t>Convenient location to DFW, you can easily get to/from airport through side road, without the need to get on highways, there is also a shuttle provided by the hotel. The room is of good size, providing separate sleeping and working areas, there is a mini fridge in the room. The morning breakfast buffet has good selection of bread, bagel, cereal, drinks,, and hot stuff like eggs, potatoes etc. There is also a sort of happy hour in the evening, which is very nice. Overall , a very good stay.More</t>
   </si>
   <si>
+    <t>Krysse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r318728849-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1242,6 +1383,9 @@
     <t>The hotel was clean, well kept and up to date.  Easy access on and off highway and surrounding area had great places to eat/shop.  Rooms were spacious.  The only thing I though was a little strange was in the King rooms, there is a wall between the "living area" and the sleeping area.  Right in front of the wall was the TV on a dresser.  You had to turn it one way or the other to watch it.   Just a little observation.  Would have been better mounted a little higher.  Pool area was clean and had fresh towels.  Handicap accessible. Bed was very comfortable.More</t>
   </si>
   <si>
+    <t>iamCanadian2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r312663656-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1269,6 +1413,9 @@
     <t>Location was good (only 20-25 mins away from the attractions we wanted to see); Great staff especially Munzy and Bernard (shuttle driver); Very comfortable suites and bed; Breakfast was good standard assortment and gym/ pool was good in size. We would stay here again when in Dallas.  Since it is in the business section there was little restaurants around but Fuzzy's was only a 5-10 minute safe walk. Great place to go for food and drinks!More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r312524487-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1440,9 @@
     <t>My wife and I were traveling to Irving for a racer reunion. We had reserved a handicap accessible room, needed for my wife. Long before our arrival the hotel called to inform us that the soap dish had fallen off the shower wall. The maintenance man had repaired it, but the staff was concerned the repair would not be fully dry at the time of our arrival. They were concerned that our stay might not be up to our expectations due to a soap dish?!The other experience was really impressive. I left an irreplaceable photo montage' in my room after checkout, and did not realize it until the next day at home (3 hours away).When I called the Hotel the desk clerk, Evette, assured me that the piece was in the office. She commented that it looked valuable, so special care was taken to not harm or destroy it. With great appreciation in my heart I returned as quickly as possible to reclaim my montage'.The entire staff was helpful and courteous during our stay, and went above and beyond when the situation called for exceptional service. THANK YOU!More</t>
   </si>
   <si>
+    <t>SunDogandCompany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r311552841-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1470,9 @@
     <t>I have stayed here for a few in-hotel meetings. It is not very convenient to DFW. Plan on a 20 minute wait for a shuttle van, then a 15 minute ride around the airport while they pick up others, then a 15 minute ride to the hotel.The rooms are clean and what you would expect for Marriott lower end properties. There is a small cafe in the lobby that serves breakfast. Several fast food and casual restaurants are within walking distance.More</t>
   </si>
   <si>
+    <t>Mike L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r298493334-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1497,9 @@
     <t>I travel to Dallas quite often for business and stay here each time because of its great staff and convenient location to the airport, dining, and anything else you would require for business or personal needs. It is also a full service hotel so if you feel like staying in after a long day - you can!  It offers a nice free breakfast and dinners as well but the menu items are a better choice. They also offer a weekly dinner special which usually can rival the area restaurants. And again, if you have a long day and stay in, but a drink is required, the full-service bar and bar tender will take good care of you. The service here is above &amp; beyond and because of this you will see the same business travelers so there is always a familiar face and good conversation at the bar. I have stayed in many Marriott's during my travels...this is one of the most enjoyable.More</t>
   </si>
   <si>
+    <t>Texan82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r297556237-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1371,6 +1527,9 @@
     <t>First off, the hotel did kind of goof up by booking us in a smoking room the first night. But they made up for it by giving a free two room suite for the second two nights. Staff was extremely apologetic about the goof up, and very friendly &amp; competent. The room was spotless, spacious, and attractive. The entire hotel was nice and up to date. Its a nice little hotel in a beautiful area.More</t>
   </si>
   <si>
+    <t>BeachBabe1966</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r288660431-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +1551,9 @@
     <t>We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus...We called ahead that morning and were able to check in at 10am which was great after driving all night long.  Good hot breakfast served daily for 3 hours with eggs, sausage patties, variety of fruit juices, oatmeal bar, etc.  Front desk personnel were exceptionally friendly, enthusiastic and helpful with directions to local restaurants and attractions.  Had an appetizer available for a few hours on weeknights.  It was blazing hot chicken wings on the night we were there.  We were a family of 2 adults and 2 teens in a king/double sofa bed room on the 4th floor.  The teens felt the sofa bed was too small and uncomfortable and we were glad we brought the inflatable queen mattress.  It inflated and was able to fit on the floor in front of the sofa bed.  The king bed was extremely comfortable and had the usual Marriott white linens.  Large bathroom with Paul Mitchell amenities.  Room fridge kept our drinks cold when we returned from a day at Six Flags which was relatively close by. We were kept awake by loud door slams from teens running up and down the hall around 10-11pm.  You can hear TV sets quite clearly when you walk down the halls, so remember this while talking in your room.  All in all, I would stay here again in a heartbeat.  Close to In N Out Burger and several other fast food joints which was a plus for my teens.More</t>
   </si>
   <si>
+    <t>April B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r265354299-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1581,9 @@
     <t>I reserved 3 rooms for 2 nights to attend my niece's wedding in Flower Mound. Called and was told that we would have connecting rooms with a room right across the hall. Check in was easy, BUT the staff acted as if asking for connecting rooms was out of the question. She said they NEVER guarantee that and there was nothing we could do to get connecting rooms. Oh well, we didn't let that ruin our trip.More</t>
   </si>
   <si>
+    <t>Tibby H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r263756982-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1608,9 @@
     <t>Quick rides to both Dallas and the airport. Rooms has a few cosmetic issues. The housekeeping staff that we had spoke little English and when they came at 9am to clean the room and we hadn't left yet and we asked her to come back she just said "No." Average stay for hotels overall and a little below average for most Marriott brands we stay at.More</t>
   </si>
   <si>
+    <t>veritasmama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r260093333-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1632,9 @@
     <t>This was our first stay with at SpringHill Suites.  The room was everything we desired for a family of 5, clean, comfortable and quiet.  Everything in the room was in good condition.  The price and location were exactly what we were looking for in a hotel.  We have only positive things to say about the room.  The breakfast was another story.  I will add that it was spring break and the hotel was packed.  With that said, if you did not get down to breakfast when it first opened, it would never really be restocked again.  All cereals, breads and yogurts were not restocked as well as no cups for coffee or juice.  The staff appeared overwhelmed with the crowds.  The pool was very cloudy which I attribute to the large number of children and youth staying over spring break.  I believe we would consider staying here again since the room itself, not the breakfast defines the overall quality of the stay.More</t>
   </si>
   <si>
+    <t>ndhavon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r247824686-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1659,9 @@
     <t>Great stay for a relaxing trip!  My husband and I spent 4 days at this particular hotel and we really were able to relax and enjoy ourselves.  The staff was great!  They were very friendly and made sure that you were enjoying your stay.  I only had one problem and that was that my key deactivated and I had to make several trips downstairs on one of the evenings we were there. Breakfast was a plus.  I was able to go get breakfast and bring it back to the room to eat it. The free Wi-Fi was a plus as well.More</t>
   </si>
   <si>
+    <t>Ajstewart78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r246971369-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1686,9 @@
     <t>We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us...We had 4 families staying at this hotel for NYE. We came to Dallas for the Cotton Bowl on New Years Day. We went to dinner and had a late check in about 9:45pm. Our kids wanted to watch the ball drop so we decided the best place to do that was the hotel breakfast area/lobby. They have a lot of tables a fake fireplace and a big screen tv that was on. We asked the Jeanette at the front desk for a remote to change the channel from ESPN to a channel that showed the ball drop. She said she didn't know where the remote was. One of the dads looked around the breakfast area and peaked behind the bar (which was closed and all alcohol locked up). Our kids were playing cards at one table, the wives and a few of our daughters by the fire and the dads at another table. We had sparking cider for the kids and snacks. We were a very subdued almost boring group. The next thing we know there were two cops asking us to go to our rooms. Apparently Jeanette said we were too loud and had people calling doen saying they could hear us. First of all, the rooms were NO where near the front lobby and there was no way they could hear us as we never got above an inside voice. Second, Jeanette not one time asked us to please be quiet. If we were loud we certainly would have talked in whispers. Like I said, we had our children with us (ages 9-16). The police never should have been called. It was embarrassing and in front of kids. We travel ALOT for baseball tournaments and I will NEVER stay at another Springhill Suites. More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r245786678-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1704,9 @@
     <t>I would like to give them a five, but a few minor details reduce to a four.  1.  No Golf Channel on tv.  2. No garment hook in bathroom.  3.  Beside clock does not have light and cannot be read at night.Weekend staff people very friendly and helpful.</t>
   </si>
   <si>
+    <t>David N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r241408637-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1545,6 +1725,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>JDTaylor2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r237843364-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1752,9 @@
     <t>Springhill Suites Dallas Las Colinas provided an awesome stay during my long weekend in the Dallas area.  First, the hotel felt safe.  Its location is away from the hustle and bustle of the freeway yet it still has very easy access when you're ready to hit the road.  The check in staff greeted you on every entrance into the lobby and also when leaving.  They truly seemed eager to help.  The property was clean and comfortable and the rooms were spacious, tidy and quiet.  The breakfast area had ample choices to fit every taste.  If you're in the area for NASCAR at Texas Motor Speedway, the location provides a straight line to the track.  It's also an easy location to stay at if you're in town for the Cowboys games.  Plan a little ahead on dining.  There is nothing super close, especially for a late night fix.  However, if you have time to drive a few minutes in any direction then there is a plethora of dining choices.  I was completely satisfied with my stay and the price I paid for the accommodations.  I do recommend this property.More</t>
   </si>
   <si>
+    <t>Travel_guy_218</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r235800786-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1782,9 @@
     <t>Excellent service when we checked in. I believe the front desk persons name was Duncan. Very nice and energetic. Big kudos to the person handling our checkout. I was stuck at a lacrosse tournament and needed a late check out and was accommodated. A huge help and will be remember in the future.  Beyond that it was a typical Marriott which is what I always look for.More</t>
   </si>
   <si>
+    <t>Nancy8B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r229511451-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1812,9 @@
     <t>i have never sat at a bar by myself in my lifetime, never, unusual but true, but tonight i came back to the hotel to rest to continue the journey for my job and i have been working since five thirty so i went to the bar and ordered a drink a a meal ,, both were served in a great way,, i felt comfortable having a drink and eating dinner,, and then i went on the computer and  sent this as i ate my cookie-- a chocolate chunk cookie,, the staff have been so attentive and i thank you for letting me a person alone travel in such a comfortable way,, it is important as business nessecitates travel today and to travel and not feel afraid is very important for a woman,, so you can feel comfortable and know that everything is okay at this hotel and i am looking for another cookie,, thank you ,, NancyMore</t>
   </si>
   <si>
+    <t>SalMTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r228266129-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1839,9 @@
     <t>The older Springhill Suites properties are starting to show some age and their layout is dated.  However, this is another SHS property that has been updated and maintained very well.    When a SHS is updated, clean and modernized they are usually very good values as this one was.It was clean, the rooms updated, the staff was excellent and helpful when needed. The location is a bit off the main road a bit, but overall a very good SHS.More</t>
   </si>
   <si>
+    <t>Sammye340</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r227714308-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1866,9 @@
     <t>My friend and I  were in Dallas for our first Cowboys game and we stayed at this hotel. It was awesome, the staff is very friendly and very helpful. Housekeeping staff did an awesome job and the breakfast was very good, lots of items to choose from. I will stay here again when I am back in Dallas. Thank you.More</t>
   </si>
   <si>
+    <t>SaintsFanGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212809108-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1689,6 +1887,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>nankar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212631489-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1707,6 +1908,9 @@
     <t>I booked this hotel based upon great reviews indicating that it provided transportation to/from the airport, had a great breakfast included, and there was a bar in the hotel.  On arrival on a Friday night at @ 10:20, we were informed that the shuttle service ended at 10 p.m. so it cost us $26 to take a taxi for the 9 minute ride to the hotel.  After check-in we wanted a drink and were told that the bar was closed as there simply was not enough business on weekends to pay a bartender!  Then, to top it off, we asked about breakfast and our shuttle to the airport in the a.m. at 7.  We learned that breakfast did not open until 7 so we missed it!  The room and bed were o.k. but don't book this hotel if you are interested in the service.More</t>
   </si>
   <si>
+    <t>Lori C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r212324810-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1731,6 +1935,9 @@
     <t>I especially want to recognize Evette Rivera. What a lovely girl. She was so nice and pleasant. Exactly the type of person you want for the front desk! I needed to break up my bill so that I could pay separately for room charges and she handled it great and gave me exactly what I needed. Thank you Evette!More</t>
   </si>
   <si>
+    <t>Clint W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r201619178-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1956,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>trop i</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r200409881-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1762,6 +1972,9 @@
   </si>
   <si>
     <t>My friends and I stayed at this hotel for our annual final four trip. Specious rooms and well staffed personnel.  Better than usual free continental breakfast.  Great location, close to the airport , central Dallas and Fort Worth. Free internet Only criticism was that the TVs were slow to go on and change channels.</t>
+  </si>
+  <si>
+    <t>Joel B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r199422007-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
@@ -1793,6 +2006,9 @@
 If I'm back in the DFW area again, I'll...Last week I stayed at this Springhill Suites for two nights (a Thurs and Fri) while in the Dallas area for two business conferences.  I generally prefer Marriott brands to collect points, and like the suite concept of these hotels so that I have a separate sitting area to eat a bite, watch tv, or work at a desk.  I had a great rate at this hotel as well at just $89 per night plus tax.  The hotel was easy to find, and not far from DFW, where I flew in, but it was far enough away so that jet noise was not an issue.  The interior walls were good as well - I didn't hear my neighbors while in the room.The staff at this hotel that I interacted with were very focused on customer service and were all very friendly.  They helped me with directions to area restaurants for dinner, and were very good at pointing out features of the hotel, including breakfast times, evening reception times, etc.  Each and every staff member I met were focused on client service, and I appreciated it.The room itself was fine.  It seemed fairly standard for this hotel brand, and it suited me just fine.  The bed linens and towels were clean, as was the room itself.  I also used the hotel's fitness center.  It was clean and usable as well.    If I'm back in the DFW area again, I'll try to stay here again.More</t>
   </si>
   <si>
+    <t>Ohpeekay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r179583031-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2028,9 @@
   </si>
   <si>
     <t>I stayed at this locations for 2 days and it was only 5 minutes away from where I needed to be. It is also 20 minutes from the Dallas Love Field airport and I believe there is a shuttle that goes to the DFW airport. It is in a quiet place which is great for getting sleep. The room was sizable and had a mini kitchenette, a living room and bathroom. The staff was friendly I the free Chuppa Chops they had at the front desk :). Complimentary breakfast was served as part of the stay and although I didn't take part in it, it was a wide array of things to choose from. The one issue I had with this hotel was that there was a strong smell in the hall way which did not really agree with me. I don't know if it came from them cleaning the carpet but it was overwhelming for me. Aside that I really didn't have any issues with this place. It is a good place to stay and it is close to the major highway giving quick access to where you need to be.More</t>
+  </si>
+  <si>
+    <t>The_Real_Birdcatcher</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r176547610-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
@@ -1850,6 +2069,9 @@
 Despite...Positives: central location; fantastic breakfast; good value.Negatives: refurbished but still worn in placesAll the Marriott properties we usually patronize in the Dallas area were booked over the Labor Day weekend, so we decided to try this location. Overall, we had a good stay.Although the hotel is centrally located; in a sense it hides in plain sight. The building can be seen across open lots from Carpenter Freeway but it tends to blend into the background, as if it was camouflaged. I'm not sure how long the property has been open but it's been updated to SpringHill Suites' fresh new look. It seems a few things weren't changed during renovation. Our bed had an obviously used mattress, complete with dip on one side. Although 'seasoned', we slept well on it...better than many newer mattresses.Inside and out the hotel was clean. However, a small red lizard managed to invade our bathroom. We saw it the last evening there but have no idea how long it had been in our room.Our busy schedule kept us from enjoying the free breakfast until our last day. That was a mistake! This property serves one of the finest hotel breakfasts I've ever tried...free or paid. I commented aloud about the quality and variety of food and another guest replied "that's why I always stay here." The front desk confirmed a number of regular customers come because of breakfast.Bottom Line:Despite a few hiccups, we found this to be an excellent property, one we'll seek out first, rather than as a fallback when other properties are unavailable. Prices are reasonable, staff is professional, and the facility comfortable...even if it is a bit cumbersome to reach.More</t>
   </si>
   <si>
+    <t>hanklucas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r167213952-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2090,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>scannermaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r163390539-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1889,6 +2114,9 @@
     <t>In the $100-$200 category shared with Courtyards and others I rank this property very high. They were remodeling some (painting and new blinds that I saw) while I was there. I'm not sure if they'll be replacing the rugs which needed it as well. Otherwise I was impressed with a good TV system, an A/C unit that blasts cold air if you want it to (and the fan stays on all night just as I like it which helps me sleep and insures that you don't hear any hallway noise or noise from adjacent rooms - although overall it was pretty quiet), comfortable beds, a decent breakfast considering there's no additional charge, free WiFi, a good location, nice staff. The housekeeping staff could have been a little quieter and the toilet in my room had a strange bang when it flushed but this is really minor stuff obviously. There's free coffee in the lobby (which could be refreshed more throughout the day) and there's a coffeemaker in the room (check plus). The room decor is your basic level for this type of hotel which kind of grates on you after a while but it's better than paying more than twice the money for a downtown Dallas full service property. Nice touch with a free bottle of Scope in the bathroom. I'll be staying here again on my next trip.More</t>
   </si>
   <si>
+    <t>TomK71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r161773239-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1904,6 +2132,9 @@
     <t>Stayed here for 14 nights. Ticked most boxes. Breakfast could be better and bar could open for longer at nights . No free dinner and beer like the Homewood Suites has but it's grand. Leave towels on floor after use to get fresh ones. It really iterates me the way hotels try to encourage you to reuse your bath towel to 'save' the environment and at the same time offer you nothing back in terms of your room rate? You help to keep their laundry bill down which is factored into the cost of your room....!!!</t>
   </si>
   <si>
+    <t>Barb E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r160975177-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1925,6 +2156,9 @@
     <t>Travelled here on business, and was less than enthusiastic when I read on-line that they did not have a restaurant or lounge on site. Much to my surprise however, they do have a small reception area in the evening, as well as a nice little bar. There is a "room-service" menu available in the evening, and you can order form it while enjoying beverages with companions.  Snacks for the room in the little "market" are incredibly low priced..... 46 cents for a small carton of milk - amazing! And a complimentary breakfast buffet every morning... They have shuttle service to and from the hotel, and to anywhere you want to go within a 3-mile radius. Complimentary, but don't forget to tip the personable drivers! The incredibly friendly staff may not consider this "Full-Service".... but overall, very impressive!More</t>
   </si>
   <si>
+    <t>Texasrangers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r149538938-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1943,6 +2177,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>krileykat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r149514036-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1958,6 +2195,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>chipmay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r148605069-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1973,6 +2213,9 @@
     <t>The suite rooms are clean and spacious and are much less expensive than other area hotels. The kids enjoyed the indoor pool. The breakfast buffet had a good assortment of food. The staff was very pleasant and helpful.</t>
   </si>
   <si>
+    <t>LeitaLuetta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r144189178-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -1991,6 +2234,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>TinyTexan05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r142558389-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2012,6 +2258,9 @@
     <t>I stayed at this property overnight on business and was happy with the accommodations. Check-in was easy, and the room was spacious. There is a couch, another chair, a desk, and a small "kitchenette" with a small fridge, a microwave and a coffee pot. The bathroom area was split - tub/shower and commode in an enclosed area, and the sink area right outside. There was a large walk-in closet as well. I was surprised there was room service. I was actually a little nervous driving in, because I traveled from the airport via taxi, and there is nothing within walking or shuttle distance in terms of dining. The only criticism is that I ordered room service (burger and fries) at 8:30, and had not received it after more than an hour. I was working, so the time got away from me, so I called room service to inquire on the delay. The attendant was very gracoius, and offered to comp my meal. I wasn't happy about eating so late, but I won't hold that experience against the hotel. Stuff happens.  There is an airport shuttle every hour on the hour. Just be sure to let them know if you flew out of Love Field; the shuttle only goes to DFW. I would stay there again.More</t>
   </si>
   <si>
+    <t>Eric L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r140042812-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2048,6 +2297,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>caraibespourmoi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r127388710-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2063,6 +2315,9 @@
     <t>Shute service not available after 10pm, call when you land not after you have your luggage.  This was not a good value. We argued with the taxi driver for 10 minutes that there was NO hotel shuttle- all the other hotels pick up until 11.Suite California sized.</t>
   </si>
   <si>
+    <t>Chasing_The_Globe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r123580310-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2084,6 +2339,9 @@
     <t>I was in Irving on business and had the pleasure of staying at the Marriott property. I will give you quick bullets on the stay:*  Great location--hotel is within 15min of DFW and off of major highway.  Also has great access to retail shopping pad.*  Food--there is room service available ( I did not use) s well as restaurants (variety) within a 3 min driving distance. I had Chinese food delivered to the hotel and it was wonderful. Breakfast is a great offering.  There are waffles, cereal (hot/cold), yogurt, fresh fruit, eggs, bacon, potato hash, biscuits/gravy, cranberry juice, orange juice.  There are also "to go" containers available.  *  Fitness--there is a fitness center (very small) that will allow you to get the work out done.  there are treadmills (2) and elliptical (1), free weights and a balance ball.  The great news is there is a LA Fitness that is 2-3 minutes away driving--or you can run/jog there if weather permits. *  Room--The room was overall very clean and all of my requirements per my Marriott profile were in room.*Customer Service--  The staff was excellent. I was greeted upon arrival. All of my questions were answered.  The staff goes above and beyond to service its guests.I would stay here again when traveling.More</t>
   </si>
   <si>
+    <t>PeterFNYNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r118151447-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2105,6 +2363,9 @@
     <t>I don't usually give 5 stars to a non-resort, non-luxury hotel but this hotel exceeded expectations that it warrants it.The hotel is located in Irving, fairly close to DFW and walking distance to some office buildings in the area.  First, the staff was amazing.  Helpful in all areas, friendly and try to ensure you have a pleasant experience.The rooms were very nice, clean and assume this hotel is fairly new as it looks it.  There is a bar in the hotel - inexpensive beer &amp; wine - and there is a "happy hour" period where food is out.  We were able to order takeout and have delivered and eat in the bar / restaurant area.  The staff was very helpful in finding the restaurants that would deliver.Lots of free things - wireless, breakfast, shuttle service - and the perfect place to use as a base when doing the business in the DFW area.More</t>
   </si>
   <si>
+    <t>BOWDY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r118042386-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2126,6 +2387,9 @@
     <t>My family and three other families stayed at the Springhill suites in Irving over the weekend.  This hotel is located out of the way among office buildings and not easily found if you are not familiar with the area.  But the location is within minutes of most shopping, restaurants, and other things to do.  We were there for a family get together and our group included children from the age of 4 to 17.  The pool area is small but not many guest were there so they had the pool pretty much to themselves.  The hotel staff was extremely helpful.  The hotel was clean and I am very picky about cleaniness of a hotel.  The beds were very comfortable. I stay at a lot of Marriott properties and for business purposes and a quick weekend get away this is a nice property to stay at for a reasonable price. I definitely will stay there on return visits.More</t>
   </si>
   <si>
+    <t>MHNOK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r116485396-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2144,6 +2408,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>gomavs2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r100901903-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2165,6 +2432,9 @@
     <t>My colleagues and I frequent this hotel quite regularly.  I've probably logged over 50 nights at this hotel.  It's not a five-start resort, it's a Springhill.  But it's the best Springhill I've stayed at.  They have a decent market, a kitchen and a bar folks!  It's location is perfect, right between DFW airport and Love Field in Dallas. It's a mile away from MacArthur and all the dining and bars you could want.  I prefer not to stay in Dallas when I travel because they kill you on parking, and Dallas is a dump.  Las Colinas is a perfect midway point, and it only takes me 15 minutes in rush hour to travel to our office off of Stemmons Freeway.  I recommend this hotel to anyone who travels and isn't looking for ridiculous accomodations, (sure the Four Seasons is great, but it's not practical).More</t>
   </si>
   <si>
+    <t>kkoz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r90245434-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2183,6 +2453,9 @@
     <t>We were greeted by quite possibly the most cheery and chipper desk person I have ever met.  The room was set up in a suite style with a wet bar, couch, and desk on one side, and the bed and bathroom on the other side.  The TV sat between the two halves and swiveled so it could be seen from either side.  It was a 25" standard definition tube TV.  There was also a mini fridge and microwave in the wet bar area.  I was able to easily connect to the free wifi, which seemed to have a decent speed.The free breakfast in the morning was very nice, with hot selections including eggs, sausage, potatoes, oatmeal, make-your-own Belgian waffles, and biscuits and gravy.  There were plenty of cold selections, including fruit, cereal, and muffins.  Overall, it was one of the better breakfasts I've had at a hotel.I was there on business, and it was extremely convenient to the Irving area and to the airport.  However, there was almost nothing within walking distance from the hotel.My only disappointment was when we informed the front desk clerk that we only needed to stay one night, instead of the two for which we had reserved it for.  She informed us that our corporate rate of $79/night would no longer be valid and we'd have to pay almost double the price ($149/night) for our single night's stay.More</t>
   </si>
   <si>
+    <t>jack783</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r89544939-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2201,6 +2474,9 @@
     <t>This was a fine place to stay for one night while in Dallas solo on business.  The hotel is surrounded by office parks so you'll need a car to get anywhere.  Very straightforward budget-oriented hotel that despite the name is not really suites--just big and spacious rooms.  Checkin was prompt and friendly.  The room was spacious and clean with a comfy sofa and a wet bar that had a fridge and I think a microwave.  Free wired and wifi and plenty of free parking.  The exercise room has a couple of treadmills and other cardio stuff but no weights, next to the decent sized indoor pool.  Hot buffet breakfast until 9:30 with good selection--waffles, scrambled and boiled eggs, breakfast meats and so on.  The hotel isn't particularly new--the tube TV is a giveaway--but it didn't show much signs of wear.  Hard to find a fault with this hotel other than maybe a little out of the way.More</t>
   </si>
   <si>
+    <t>mrbill12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r62372997-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2222,6 +2498,9 @@
     <t>A colleague and I lived in this property for nearly a month. Yes, it's clean and friendly and new and located in an area with great access to Dallas and Fort Worth. However, for the price you would think a hotel catering to business travelers—in the midst of a corporate Mecca like Las Colinas—would offer REAL "high-speed internet" instead of speeds slower than a dial-up modem or my 3G cell phone. As someone who literally used my hotel room as an office and sleeping quarters, it was so frustrating that I nearly moved several times; then I found out that most other hotels weren't much better. One night I wanted to download a movie on iTunes and it took 34 hours, normally 45 minutes at home with 9 MB/sec service. Streaming anything was virtually impossible and it was barely adequate to send emails with attachments.Special thanks to Phil, the general manager, who helped with an extra table in my room to expand my work surface and who listened to my complaint about the internet. The staff and housekeepers were fantastic. I used video surveillance to make sure no one came into my room when I posted the "privacy" tag. I had a laptop, a desktop, widescreen LCD, printer, and no worries at all about my stuff walking off.More</t>
   </si>
   <si>
+    <t>swhittOK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r37194253-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2240,6 +2519,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>lucycan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r37027207-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2253,6 +2535,9 @@
   </si>
   <si>
     <t>You get what you expect from a SpringHill Suites.  Newer hotel, nice furnishings, a comfy bed, and a free breakfast.This hotel is no exception.The front desk staff was interesting.  When I checked in the woman was OVERLY friendly.  When I checked out the woman was in a trance (it was 6am).I find the cheaper window unit (wall controlled) fans make too much noise.  This is common in all the newer Fairfield, Towneplace, and Springhill.  You just need to get used to it.This hotel has a good location near lots of restaurants and shopping.  15 min to DFW.</t>
+  </si>
+  <si>
+    <t>kasey363</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r10090382-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
@@ -2280,6 +2565,9 @@
 Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was...Stayed for weekend for Pats-Cowboys game (sorry, you Cowboy fans); and this hotel was in a great location to Texas Stadium, from DFW Airport and local shopping centers and restaurants.  It's off the highway adjacent to corporate office parks, but so are most - if not all hotels in this area.  Overall the staff was friendly and extremely helpful even to us Patriots fans (as we found most locals, service staff etc to be;  they love their Cowboys and a good natured rivalry).  Hotel was very clean, rooms were new, cleaning staff was excellent.  Suites were spacious for two or three, maybe with a few kids it would be okay - but four adults in one suite would be too close for comfort since the bedroom and living area are not really "seperated"; just by short walls or angles of the room.  We were able to get three rather than two rooms no problem on the spot and we were all next to each other also.  Beds were comfortable, living area decently spacious with small counter spaceabove a refer and microwave.  I would defintely stay in these suites again upon a return visit, even if for a longer period of time.   Free breakfast was decent.  Weekday had more options than the weekend - but also had much less people.  But everything was hot and replensihed pretty well....make your own waffles, cereals, egg and sausage/bacon choices, pastry etc.  Dining area was spacious and very clean with big screen TV and computer access.  Parking is ample (free).  Shuttle service to DFW airport runs all day (but starts at 7am - so we one of us had an early flight and they arranged a taxi and wake up call - front desk very nice...).  Area is great acceess to several shopping areas and food choices from fast foods to nice sit down restaurants.  Many choices for eats in any direction.  City of Dallas is only 15-20 minutes or so away.  Fitness room was good - multiple stairsteppers, tradmills and a bike. New equipment.  Pool area(indoor) was good for size of hotel and had a good size jacuzzi also.  Nice accomodations and staff, would highly recommend for this area.More</t>
   </si>
   <si>
+    <t>gotowork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r8498073-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2298,6 +2586,9 @@
     <t>Have stayed in several different rooms due to work over the last few weeks.  One room had a broken air conditioner in such poor condition that the room felt "wet" inside.  Mold is growing (a lot of it) on the wall in the bathroom.  Other rooms I have stayed in (I had to move a couple of times due to these tiny bugs I kept finding) are infested with tiny black or dark brown bugs.  They are found on the walls and ceilings.  Very gross!  The entire hotel must be infested.  When I said something they said they had the hotel sprayed but I still found some climbing the walls.  Forget sleeping.  My first trip there I came home with 2 unusual bites on my ankle and my latest trip one on each arm.  I have to wonder if they are from these bugs.  I dread going back but have to for work.  A colleague I work with told me she also found these bugs in her room.More</t>
   </si>
   <si>
+    <t>SILKSILOET</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r8369257-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2319,6 +2610,9 @@
     <t>We booked this hotel to have a class reunion. The staff there was polite and did everything they could to accommodate our needs. This hotel is a Marriott and kind of still new. The area around the hotel is corporate and the hotel is geared around this. Great place to stay if you are on business, but you will need a rental car. Downtown Dallas is about a 25-30m ride on the freeway. For the record, this particular area is "dry" so if you would like to indulge after the bar has closed, be sure to BYOB ahead of time. If you are looking to get away for business, this would be the place or if you want to be out of the way of the crowds. But for me personally, this is not the area I would stay with my children, it's just not child oriented. The staff is great! The rooms are clean. If in this area for the same thing, I would stay there again. P.S. If coming in through DFW airport and need shuttle to the hotel, you must dial the hotel directly for service as they are not yet listed on the courtesy phones at the airport. Thanks again to the wonderful staff of the hotel. We truly enjoyed our stay there!More</t>
   </si>
   <si>
+    <t>vaznayak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r6629346-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2337,6 +2631,9 @@
     <t>January 2007</t>
   </si>
   <si>
+    <t>bhavi09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r6099504-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2355,6 +2652,9 @@
     <t>October 2006</t>
   </si>
   <si>
+    <t>redmoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r5923083-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
   </si>
   <si>
@@ -2374,6 +2674,9 @@
   </si>
   <si>
     <t>This is a new Hotel located adjacent to a Business Park.  The area is very nice with restaurants and shopping in a new business district not too far away.  The rooms are very comfortable and exceptionally clean.  The problems are with the front desk employees.  Many mistakes were made.  First, with our reservations for the type of room we reserved.  We had to wait over 1/2 hour to finally get into our room.  The worst mistake was giving OUR room and key to another customer.  The people bursting into our room was very frightening. (The dead bolt on our door was broken and had not been fixed).  After this incident, the hotel changed our key and did not notify us.  We only found this out when we returned to our room later and were locked out.  Other than the  management problems, the hotel itself is very nice.More</t>
+  </si>
+  <si>
+    <t>Meme96</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d578287-r4831160-SpringHill_Suites_Dallas_DFW_Airport_East_Las_Colinas_Irving-Irving_Texas.html</t>
@@ -2896,43 +3199,47 @@
       <c r="A2" t="n">
         <v>54191</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177806</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2952,50 +3259,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54191</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177807</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3007,47 +3318,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54191</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>177808</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -3064,56 +3379,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54191</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177809</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3133,50 +3452,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54191</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177810</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3196,50 +3519,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54191</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>177811</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3253,50 +3580,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54191</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177812</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3310,50 +3641,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54191</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3367,50 +3702,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54191</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177814</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3428,50 +3767,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54191</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177815</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3483,56 +3826,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54191</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177816</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3544,56 +3891,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54191</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177817</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3607,50 +3958,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54191</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177818</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3670,50 +4025,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54191</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177819</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3731,56 +4090,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54191</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177820</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3792,56 +4155,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54191</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177821</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3859,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54191</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126411</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3922,50 +4293,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54191</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3979,50 +4354,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54191</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18919</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4036,50 +4415,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54191</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177822</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4095,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54191</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177823</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4158,50 +4545,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54191</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177824</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4215,50 +4606,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54191</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177825</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4272,50 +4667,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54191</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>21711</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4329,41 +4728,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54191</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>96146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -4382,50 +4785,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54191</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>40699</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4443,56 +4850,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="X27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54191</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177826</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4508,56 +4919,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54191</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177827</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4575,56 +4990,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54191</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>709</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4642,56 +5061,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54191</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>90864</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4703,56 +5126,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="X31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54191</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177828</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4768,56 +5195,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="X32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54191</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>44636</v>
+      </c>
+      <c r="C33" t="s">
+        <v>295</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4829,56 +5260,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="X33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54191</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177829</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4890,56 +5325,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54191</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>4466</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4951,56 +5390,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54191</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177830</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5012,56 +5455,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54191</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>106549</v>
+      </c>
+      <c r="C37" t="s">
+        <v>333</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5073,56 +5520,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54191</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5140,56 +5591,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54191</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177831</v>
+      </c>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5205,56 +5660,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54191</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>35575</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5266,56 +5725,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54191</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>53919</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5327,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54191</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177832</v>
+      </c>
+      <c r="C42" t="s">
+        <v>380</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5388,56 +5855,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54191</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177833</v>
+      </c>
+      <c r="C43" t="s">
+        <v>389</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5455,56 +5926,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54191</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>38423</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5520,56 +5995,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54191</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177834</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5587,56 +6066,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="X45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="Y45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54191</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177835</v>
+      </c>
+      <c r="C46" t="s">
+        <v>415</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5648,56 +6131,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="X46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="Y46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54191</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="J47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="K47" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5709,56 +6196,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="X47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54191</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>80732</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5776,56 +6267,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="X48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="Y48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54191</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177836</v>
+      </c>
+      <c r="C49" t="s">
+        <v>444</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="J49" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="K49" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="L49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5841,56 +6336,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="X49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="Y49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54191</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177837</v>
+      </c>
+      <c r="C50" t="s">
+        <v>453</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="J50" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="K50" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="L50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="O50" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5908,56 +6407,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="X50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="Y50" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54191</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C51" t="s">
+        <v>463</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5973,56 +6476,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="X51" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54191</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>98445</v>
+      </c>
+      <c r="C52" t="s">
+        <v>472</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6040,56 +6547,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="X52" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="Y52" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54191</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>925</v>
+      </c>
+      <c r="C53" t="s">
+        <v>482</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="J53" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="K53" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6107,56 +6618,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="X53" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54191</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177838</v>
+      </c>
+      <c r="C54" t="s">
+        <v>491</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="J54" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="L54" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="O54" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6174,56 +6689,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="X54" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="Y54" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54191</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177839</v>
+      </c>
+      <c r="C55" t="s">
+        <v>501</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="J55" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="K55" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="L55" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6241,56 +6760,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="X55" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54191</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>13559</v>
+      </c>
+      <c r="C56" t="s">
+        <v>509</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6306,56 +6829,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="X56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54191</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>91120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>519</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="O57" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6367,56 +6894,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="X57" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="Y57" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54191</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177840</v>
+      </c>
+      <c r="C58" t="s">
+        <v>528</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6436,50 +6967,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54191</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>92265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>536</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K59" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O59" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6495,47 +7030,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="X59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54191</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177841</v>
+      </c>
+      <c r="C60" t="s">
+        <v>545</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
@@ -6562,56 +7101,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="X60" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="Y60" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54191</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>554</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="J61" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="O61" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6631,50 +7174,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54191</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>9060</v>
+      </c>
+      <c r="C62" t="s">
+        <v>560</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="J62" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="K62" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="L62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6694,50 +7241,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54191</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177842</v>
+      </c>
+      <c r="C63" t="s">
+        <v>567</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="K63" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6755,56 +7306,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
       <c r="X63" t="s">
-        <v>513</v>
+        <v>574</v>
       </c>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54191</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177843</v>
+      </c>
+      <c r="C64" t="s">
+        <v>576</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>582</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6816,56 +7371,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="X64" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="Y64" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54191</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177844</v>
+      </c>
+      <c r="C65" t="s">
+        <v>586</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="K65" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="L65" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6881,56 +7440,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="X65" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="Y65" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54191</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>152337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>596</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="J66" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6944,56 +7507,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="X66" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="Y66" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54191</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177845</v>
+      </c>
+      <c r="C67" t="s">
+        <v>605</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="J67" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="K67" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="L67" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="O67" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7011,56 +7578,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="X67" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="Y67" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54191</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177846</v>
+      </c>
+      <c r="C68" t="s">
+        <v>614</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="J68" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="K68" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="L68" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="O68" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7084,50 +7655,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54191</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177847</v>
+      </c>
+      <c r="C69" t="s">
+        <v>621</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>555</v>
+        <v>622</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>556</v>
+        <v>623</v>
       </c>
       <c r="J69" t="s">
-        <v>557</v>
+        <v>624</v>
       </c>
       <c r="K69" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="L69" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="O69" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -7151,50 +7726,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54191</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>14812</v>
+      </c>
+      <c r="C70" t="s">
+        <v>628</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
       <c r="J70" t="s">
-        <v>563</v>
+        <v>631</v>
       </c>
       <c r="K70" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="L70" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -7206,56 +7785,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="X70" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="Y70" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54191</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177848</v>
+      </c>
+      <c r="C71" t="s">
+        <v>637</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="J71" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="K71" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="L71" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7279,50 +7862,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54191</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177849</v>
+      </c>
+      <c r="C72" t="s">
+        <v>644</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="J72" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="K72" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="L72" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="O72" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7346,50 +7933,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54191</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>890</v>
+      </c>
+      <c r="C73" t="s">
+        <v>650</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="J73" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="K73" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="L73" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7413,50 +8004,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54191</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177850</v>
+      </c>
+      <c r="C74" t="s">
+        <v>658</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="J74" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="K74" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="L74" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="O74" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7480,50 +8075,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54191</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177851</v>
+      </c>
+      <c r="C75" t="s">
+        <v>666</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="J75" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="K75" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="L75" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="O75" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7547,50 +8146,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54191</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177852</v>
+      </c>
+      <c r="C76" t="s">
+        <v>673</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="J76" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="K76" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="L76" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="O76" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7614,50 +8217,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54191</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177853</v>
+      </c>
+      <c r="C77" t="s">
+        <v>680</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="J77" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="K77" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="L77" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7681,41 +8288,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54191</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177854</v>
+      </c>
+      <c r="C78" t="s">
+        <v>688</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="J78" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="K78" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="L78" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7744,50 +8355,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54191</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177855</v>
+      </c>
+      <c r="C79" t="s">
+        <v>694</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="J79" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="K79" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="L79" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7811,50 +8426,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54191</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>9240</v>
+      </c>
+      <c r="C80" t="s">
+        <v>702</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="J80" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="K80" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="L80" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="O80" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7878,50 +8497,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54191</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177856</v>
+      </c>
+      <c r="C81" t="s">
+        <v>709</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="J81" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="K81" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="L81" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7935,50 +8558,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>54191</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>177857</v>
+      </c>
+      <c r="C82" t="s">
+        <v>715</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>637</v>
+        <v>717</v>
       </c>
       <c r="J82" t="s">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="K82" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="L82" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8002,50 +8629,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>54191</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>8565</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="J83" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="K83" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="O83" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8069,50 +8700,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>54191</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>2947</v>
+      </c>
+      <c r="C84" t="s">
+        <v>728</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="J84" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="K84" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="L84" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8136,50 +8771,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>54191</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>19410</v>
+      </c>
+      <c r="C85" t="s">
+        <v>736</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>654</v>
+        <v>737</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>655</v>
+        <v>738</v>
       </c>
       <c r="J85" t="s">
-        <v>656</v>
+        <v>739</v>
       </c>
       <c r="K85" t="s">
-        <v>657</v>
+        <v>740</v>
       </c>
       <c r="L85" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8193,50 +8832,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>658</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>54191</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>177855</v>
+      </c>
+      <c r="C86" t="s">
+        <v>709</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
       <c r="J86" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="K86" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="L86" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8256,41 +8899,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>54191</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177858</v>
+      </c>
+      <c r="C87" t="s">
+        <v>749</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>667</v>
+        <v>751</v>
       </c>
       <c r="J87" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="K87" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="L87" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
@@ -8319,50 +8966,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>54191</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>177859</v>
+      </c>
+      <c r="C88" t="s">
+        <v>755</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>671</v>
+        <v>756</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="J88" t="s">
-        <v>673</v>
+        <v>758</v>
       </c>
       <c r="K88" t="s">
-        <v>674</v>
+        <v>759</v>
       </c>
       <c r="L88" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8386,50 +9037,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>54191</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177860</v>
+      </c>
+      <c r="C89" t="s">
+        <v>763</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>678</v>
+        <v>764</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>679</v>
+        <v>765</v>
       </c>
       <c r="J89" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
       <c r="K89" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="L89" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8451,50 +9106,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>54191</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>97673</v>
+      </c>
+      <c r="C90" t="s">
+        <v>771</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>685</v>
+        <v>772</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>686</v>
+        <v>773</v>
       </c>
       <c r="J90" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
       <c r="K90" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
       <c r="L90" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8516,50 +9175,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>54191</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177861</v>
+      </c>
+      <c r="C91" t="s">
+        <v>779</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>780</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>693</v>
+        <v>781</v>
       </c>
       <c r="J91" t="s">
-        <v>694</v>
+        <v>782</v>
       </c>
       <c r="K91" t="s">
-        <v>695</v>
+        <v>783</v>
       </c>
       <c r="L91" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8579,50 +9242,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>696</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>54191</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177862</v>
+      </c>
+      <c r="C92" t="s">
+        <v>786</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>698</v>
+        <v>787</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>699</v>
+        <v>788</v>
       </c>
       <c r="J92" t="s">
-        <v>700</v>
+        <v>789</v>
       </c>
       <c r="K92" t="s">
-        <v>701</v>
+        <v>790</v>
       </c>
       <c r="L92" t="s">
-        <v>702</v>
+        <v>791</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8646,50 +9313,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>54191</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>100626</v>
+      </c>
+      <c r="C93" t="s">
+        <v>794</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="J93" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="K93" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="L93" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -8713,50 +9384,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>54191</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>177863</v>
+      </c>
+      <c r="C94" t="s">
+        <v>801</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>711</v>
+        <v>802</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>712</v>
+        <v>803</v>
       </c>
       <c r="J94" t="s">
-        <v>713</v>
+        <v>804</v>
       </c>
       <c r="K94" t="s">
-        <v>714</v>
+        <v>805</v>
       </c>
       <c r="L94" t="s">
-        <v>715</v>
+        <v>806</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>697</v>
+        <v>785</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8780,50 +9455,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>716</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>54191</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>177864</v>
+      </c>
+      <c r="C95" t="s">
+        <v>808</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>717</v>
+        <v>809</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>718</v>
+        <v>810</v>
       </c>
       <c r="J95" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="K95" t="s">
-        <v>720</v>
+        <v>812</v>
       </c>
       <c r="L95" t="s">
-        <v>721</v>
+        <v>813</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>722</v>
+        <v>814</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8847,50 +9526,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>723</v>
+        <v>815</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>54191</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177865</v>
+      </c>
+      <c r="C96" t="s">
+        <v>816</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>724</v>
+        <v>817</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>725</v>
+        <v>818</v>
       </c>
       <c r="J96" t="s">
-        <v>726</v>
+        <v>819</v>
       </c>
       <c r="K96" t="s">
-        <v>727</v>
+        <v>820</v>
       </c>
       <c r="L96" t="s">
-        <v>728</v>
+        <v>821</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>729</v>
+        <v>822</v>
       </c>
       <c r="O96" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8914,50 +9597,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>728</v>
+        <v>821</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>54191</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>177866</v>
+      </c>
+      <c r="C97" t="s">
+        <v>823</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>730</v>
+        <v>824</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>731</v>
+        <v>825</v>
       </c>
       <c r="J97" t="s">
-        <v>732</v>
+        <v>826</v>
       </c>
       <c r="K97" t="s">
-        <v>733</v>
+        <v>827</v>
       </c>
       <c r="L97" t="s">
-        <v>734</v>
+        <v>828</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>729</v>
+        <v>822</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8981,50 +9668,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>734</v>
+        <v>828</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>54191</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177867</v>
+      </c>
+      <c r="C98" t="s">
+        <v>829</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>736</v>
+        <v>831</v>
       </c>
       <c r="J98" t="s">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="K98" t="s">
-        <v>738</v>
+        <v>833</v>
       </c>
       <c r="L98" t="s">
-        <v>739</v>
+        <v>834</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>740</v>
+        <v>835</v>
       </c>
       <c r="O98" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9048,41 +9739,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>741</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>54191</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>177868</v>
+      </c>
+      <c r="C99" t="s">
+        <v>837</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>742</v>
+        <v>838</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>743</v>
+        <v>839</v>
       </c>
       <c r="J99" t="s">
-        <v>744</v>
+        <v>840</v>
       </c>
       <c r="K99" t="s">
-        <v>745</v>
+        <v>841</v>
       </c>
       <c r="L99" t="s">
-        <v>746</v>
+        <v>842</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
@@ -9109,50 +9804,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>54191</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>177869</v>
+      </c>
+      <c r="C100" t="s">
+        <v>844</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>749</v>
+        <v>846</v>
       </c>
       <c r="J100" t="s">
-        <v>750</v>
+        <v>847</v>
       </c>
       <c r="K100" t="s">
-        <v>751</v>
+        <v>848</v>
       </c>
       <c r="L100" t="s">
-        <v>752</v>
+        <v>849</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="n">
@@ -9174,50 +9873,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>754</v>
+        <v>851</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>54191</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177870</v>
+      </c>
+      <c r="C101" t="s">
+        <v>852</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>756</v>
+        <v>854</v>
       </c>
       <c r="J101" t="s">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c r="K101" t="s">
-        <v>758</v>
+        <v>856</v>
       </c>
       <c r="L101" t="s">
-        <v>759</v>
+        <v>857</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>760</v>
+        <v>858</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9241,50 +9944,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>759</v>
+        <v>857</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>54191</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>177871</v>
+      </c>
+      <c r="C102" t="s">
+        <v>859</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
       <c r="J102" t="s">
-        <v>763</v>
+        <v>862</v>
       </c>
       <c r="K102" t="s">
-        <v>764</v>
+        <v>863</v>
       </c>
       <c r="L102" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
       <c r="O102" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9308,50 +10015,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>54191</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>177872</v>
+      </c>
+      <c r="C103" t="s">
+        <v>866</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>767</v>
+        <v>867</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>768</v>
+        <v>868</v>
       </c>
       <c r="J103" t="s">
-        <v>769</v>
+        <v>869</v>
       </c>
       <c r="K103" t="s">
-        <v>770</v>
+        <v>870</v>
       </c>
       <c r="L103" t="s">
-        <v>771</v>
+        <v>871</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>772</v>
+        <v>872</v>
       </c>
       <c r="O103" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9373,41 +10084,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>773</v>
+        <v>873</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>54191</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>177873</v>
+      </c>
+      <c r="C104" t="s">
+        <v>874</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>774</v>
+        <v>875</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>775</v>
+        <v>876</v>
       </c>
       <c r="J104" t="s">
-        <v>776</v>
+        <v>877</v>
       </c>
       <c r="K104" t="s">
-        <v>777</v>
+        <v>878</v>
       </c>
       <c r="L104" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
@@ -9426,7 +10141,7 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
